--- a/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9958455197846757</v>
+        <v>1.017209636477205</v>
       </c>
       <c r="D2">
-        <v>1.016290277175023</v>
+        <v>1.034469251474666</v>
       </c>
       <c r="E2">
-        <v>1.002819597695476</v>
+        <v>1.030041963036037</v>
       </c>
       <c r="F2">
-        <v>1.013982632988217</v>
+        <v>1.038941722805768</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0453762654542</v>
+        <v>1.048509013863431</v>
       </c>
       <c r="J2">
-        <v>1.018151204684391</v>
+        <v>1.038887517949173</v>
       </c>
       <c r="K2">
-        <v>1.027527233422396</v>
+        <v>1.045468386325388</v>
       </c>
       <c r="L2">
-        <v>1.014239790315941</v>
+        <v>1.041098049013941</v>
       </c>
       <c r="M2">
-        <v>1.025250544819638</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.04988394056737</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005295550546538</v>
+        <v>1.024097617810273</v>
       </c>
       <c r="D3">
-        <v>1.023722254119365</v>
+        <v>1.039810935597082</v>
       </c>
       <c r="E3">
-        <v>1.011056133434535</v>
+        <v>1.035878327031094</v>
       </c>
       <c r="F3">
-        <v>1.022580836802853</v>
+        <v>1.045008780387056</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048880668144317</v>
+        <v>1.050327215590168</v>
       </c>
       <c r="J3">
-        <v>1.025642887188327</v>
+        <v>1.043952239155741</v>
       </c>
       <c r="K3">
-        <v>1.034060341574657</v>
+        <v>1.049958560024256</v>
       </c>
       <c r="L3">
-        <v>1.021549476774052</v>
+        <v>1.046071830844657</v>
       </c>
       <c r="M3">
-        <v>1.032932719413635</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.055096418815607</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011178612652655</v>
+        <v>1.028434996305096</v>
       </c>
       <c r="D4">
-        <v>1.028351738376099</v>
+        <v>1.043176608474053</v>
       </c>
       <c r="E4">
-        <v>1.01618505149156</v>
+        <v>1.039559366680546</v>
       </c>
       <c r="F4">
-        <v>1.027941324871663</v>
+        <v>1.048835157869691</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051046292692922</v>
+        <v>1.051459903453976</v>
       </c>
       <c r="J4">
-        <v>1.030300627347113</v>
+        <v>1.047138277010441</v>
       </c>
       <c r="K4">
-        <v>1.03811961345559</v>
+        <v>1.052780427338194</v>
       </c>
       <c r="L4">
-        <v>1.026091984185532</v>
+        <v>1.049202684860977</v>
       </c>
       <c r="M4">
-        <v>1.037713824616227</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.058377856572662</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013600313373814</v>
+        <v>1.030231254741164</v>
       </c>
       <c r="D5">
-        <v>1.0302579157687</v>
+        <v>1.044570831787386</v>
       </c>
       <c r="E5">
-        <v>1.018296521482702</v>
+        <v>1.041085139218981</v>
       </c>
       <c r="F5">
-        <v>1.030149623393978</v>
+        <v>1.050421131387297</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051933821928472</v>
+        <v>1.051925992779036</v>
       </c>
       <c r="J5">
-        <v>1.032216375539181</v>
+        <v>1.048456888931655</v>
       </c>
       <c r="K5">
-        <v>1.039788571082322</v>
+        <v>1.053947637180886</v>
       </c>
       <c r="L5">
-        <v>1.02795983406534</v>
+        <v>1.050498935306212</v>
       </c>
       <c r="M5">
-        <v>1.039681462748763</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.059736526597616</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014004011787558</v>
+        <v>1.030531301250669</v>
       </c>
       <c r="D6">
-        <v>1.030575701192477</v>
+        <v>1.044803742156372</v>
       </c>
       <c r="E6">
-        <v>1.018648513386354</v>
+        <v>1.041340079595555</v>
       </c>
       <c r="F6">
-        <v>1.030517844271769</v>
+        <v>1.050686128255437</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052081539991812</v>
+        <v>1.052003670355176</v>
       </c>
       <c r="J6">
-        <v>1.032535637328879</v>
+        <v>1.048677098577584</v>
       </c>
       <c r="K6">
-        <v>1.04006666632577</v>
+        <v>1.05414252172036</v>
       </c>
       <c r="L6">
-        <v>1.028271083892214</v>
+        <v>1.050715438432939</v>
       </c>
       <c r="M6">
-        <v>1.040009438777658</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.059963459423327</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01121116916518</v>
+        <v>1.028459102930489</v>
       </c>
       <c r="D7">
-        <v>1.028377362594704</v>
+        <v>1.04319531821639</v>
       </c>
       <c r="E7">
-        <v>1.016213436693818</v>
+        <v>1.039579838114437</v>
       </c>
       <c r="F7">
-        <v>1.027971005878929</v>
+        <v>1.048856437189594</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051058240007892</v>
+        <v>1.051466170517259</v>
       </c>
       <c r="J7">
-        <v>1.030326388303039</v>
+        <v>1.047155976784997</v>
       </c>
       <c r="K7">
-        <v>1.038142058411559</v>
+        <v>1.052796097567027</v>
       </c>
       <c r="L7">
-        <v>1.026117103052468</v>
+        <v>1.049220082596848</v>
       </c>
       <c r="M7">
-        <v>1.037740278816873</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.058396091791327</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9990897032239527</v>
+        <v>1.01956314066661</v>
       </c>
       <c r="D8">
-        <v>1.018840976750855</v>
+        <v>1.036293928645501</v>
       </c>
       <c r="E8">
-        <v>1.005646839870312</v>
+        <v>1.032034860403718</v>
       </c>
       <c r="F8">
-        <v>1.016932651180322</v>
+        <v>1.041013426280582</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046582669880207</v>
+        <v>1.049132802471484</v>
       </c>
       <c r="J8">
-        <v>1.020724344247585</v>
+        <v>1.040618686855916</v>
       </c>
       <c r="K8">
-        <v>1.029771642475953</v>
+        <v>1.04700373268199</v>
       </c>
       <c r="L8">
-        <v>1.016750860582199</v>
+        <v>1.042797702554322</v>
       </c>
       <c r="M8">
-        <v>1.027888041615167</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.051665088960086</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9757506013990062</v>
+        <v>1.002899497436325</v>
       </c>
       <c r="D9">
-        <v>1.000510846444571</v>
+        <v>1.023387621407149</v>
       </c>
       <c r="E9">
-        <v>0.9853184742570155</v>
+        <v>1.017953362135311</v>
       </c>
       <c r="F9">
-        <v>0.9957509230931361</v>
+        <v>1.02637448547272</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037837021378228</v>
+        <v>1.04466613842249</v>
       </c>
       <c r="J9">
-        <v>1.002189719541836</v>
+        <v>1.028350280814668</v>
       </c>
       <c r="K9">
-        <v>1.013595640955245</v>
+        <v>1.036112313960305</v>
       </c>
       <c r="L9">
-        <v>0.998654326507862</v>
+        <v>1.030761722471743</v>
       </c>
       <c r="M9">
-        <v>1.008913316850819</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.039053672087834</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9585193461946937</v>
+        <v>0.9910147830631495</v>
       </c>
       <c r="D10">
-        <v>0.987014171775246</v>
+        <v>1.014204868934782</v>
       </c>
       <c r="E10">
-        <v>0.9703320797294104</v>
+        <v>1.007951854442125</v>
       </c>
       <c r="F10">
-        <v>0.9801754123234965</v>
+        <v>1.015976376225485</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031299040826359</v>
+        <v>1.041419594337517</v>
       </c>
       <c r="J10">
-        <v>0.9884811955339031</v>
+        <v>1.019589485970227</v>
       </c>
       <c r="K10">
-        <v>1.001621915618489</v>
+        <v>1.028322300614454</v>
       </c>
       <c r="L10">
-        <v>0.985258486333258</v>
+        <v>1.022179004779963</v>
       </c>
       <c r="M10">
-        <v>0.9949120749759033</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.030063041794881</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9505644125096272</v>
+        <v>0.985655927605435</v>
       </c>
       <c r="D11">
-        <v>0.9807961102559275</v>
+        <v>1.010071564393105</v>
       </c>
       <c r="E11">
-        <v>0.9634217011423847</v>
+        <v>1.003453673864923</v>
       </c>
       <c r="F11">
-        <v>0.9730036468896867</v>
+        <v>1.011299703154991</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028263374916375</v>
+        <v>1.039942342890481</v>
       </c>
       <c r="J11">
-        <v>0.982148873848163</v>
+        <v>1.015637856124497</v>
       </c>
       <c r="K11">
-        <v>0.9960895041017478</v>
+        <v>1.02480601275555</v>
       </c>
       <c r="L11">
-        <v>0.9790680480825372</v>
+        <v>1.018310751541747</v>
       </c>
       <c r="M11">
-        <v>0.9884532874626453</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.026011624055283</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9475250864188582</v>
+        <v>0.9836306713877386</v>
       </c>
       <c r="D12">
-        <v>0.9784227294312096</v>
+        <v>1.008510748294398</v>
       </c>
       <c r="E12">
-        <v>0.9607830083070662</v>
+        <v>1.001755579543731</v>
       </c>
       <c r="F12">
-        <v>0.9702667603193826</v>
+        <v>1.009534212315612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027101135838461</v>
+        <v>1.039382141366274</v>
       </c>
       <c r="J12">
-        <v>0.9797291659585479</v>
+        <v>1.014144338856998</v>
       </c>
       <c r="K12">
-        <v>0.9939753295357645</v>
+        <v>1.023476692240028</v>
       </c>
       <c r="L12">
-        <v>0.9767021911652082</v>
+        <v>1.016849222533069</v>
       </c>
       <c r="M12">
-        <v>0.9859866668373904</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.024481003371325</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9481810456988755</v>
+        <v>0.9840667160029223</v>
       </c>
       <c r="D13">
-        <v>0.9789348487013885</v>
+        <v>1.008846736801821</v>
       </c>
       <c r="E13">
-        <v>0.9613524262473129</v>
+        <v>1.002121097089611</v>
       </c>
       <c r="F13">
-        <v>0.9708572939156719</v>
+        <v>1.009914237653856</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02735207976854</v>
+        <v>1.039502839105661</v>
       </c>
       <c r="J13">
-        <v>0.9802514076498936</v>
+        <v>1.01446590033693</v>
       </c>
       <c r="K13">
-        <v>0.9944316326947249</v>
+        <v>1.023762916054674</v>
       </c>
       <c r="L13">
-        <v>0.9772128264071835</v>
+        <v>1.017163874995173</v>
       </c>
       <c r="M13">
-        <v>0.9865189682208206</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.024810525310795</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9503149722066953</v>
+        <v>0.9854892452143104</v>
       </c>
       <c r="D14">
-        <v>0.9806012746785439</v>
+        <v>1.009943079374003</v>
       </c>
       <c r="E14">
-        <v>0.9632051080225826</v>
+        <v>1.003313878216764</v>
       </c>
       <c r="F14">
-        <v>0.9727789605624243</v>
+        <v>1.011154359355303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02816803628446</v>
+        <v>1.039896275355417</v>
       </c>
       <c r="J14">
-        <v>0.9819502914261226</v>
+        <v>1.015514937966745</v>
       </c>
       <c r="K14">
-        <v>0.9959159984660034</v>
+        <v>1.024696614840692</v>
       </c>
       <c r="L14">
-        <v>0.9788738924073744</v>
+        <v>1.018190456288188</v>
       </c>
       <c r="M14">
-        <v>0.988250825797278</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.025885639667477</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.951618211262271</v>
+        <v>0.9863610203886296</v>
       </c>
       <c r="D15">
-        <v>0.9816193204747059</v>
+        <v>1.010615129120614</v>
       </c>
       <c r="E15">
-        <v>0.9643367963547537</v>
+        <v>1.004045109305878</v>
       </c>
       <c r="F15">
-        <v>0.9739530013808579</v>
+        <v>1.011914610678919</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028666051358861</v>
+        <v>1.040137138843519</v>
       </c>
       <c r="J15">
-        <v>0.9829878037663733</v>
+        <v>1.01615781636912</v>
       </c>
       <c r="K15">
-        <v>0.9968224901560885</v>
+        <v>1.025268766963126</v>
       </c>
       <c r="L15">
-        <v>0.9798882621216718</v>
+        <v>1.018819636019869</v>
       </c>
       <c r="M15">
-        <v>0.9893086634040371</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.026544579901383</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9590360513965813</v>
+        <v>0.9913657210822291</v>
       </c>
       <c r="D16">
-        <v>0.9874183557902833</v>
+        <v>1.014475713681814</v>
       </c>
       <c r="E16">
-        <v>0.9707811296208125</v>
+        <v>1.008246680871398</v>
       </c>
       <c r="F16">
-        <v>0.9806416641972672</v>
+        <v>1.016282899476355</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031495879363884</v>
+        <v>1.041516066936764</v>
       </c>
       <c r="J16">
-        <v>0.9888924476318045</v>
+        <v>1.019848249516304</v>
       </c>
       <c r="K16">
-        <v>1.00198119510354</v>
+        <v>1.028552507526532</v>
       </c>
       <c r="L16">
-        <v>0.9856604728239167</v>
+        <v>1.022432373291691</v>
       </c>
       <c r="M16">
-        <v>0.9953317276266321</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.030328422469736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9635502154250183</v>
+        <v>0.994446226689898</v>
       </c>
       <c r="D17">
-        <v>0.9909509534771855</v>
+        <v>1.016854004676509</v>
       </c>
       <c r="E17">
-        <v>0.9747051726995143</v>
+        <v>1.010835964467119</v>
       </c>
       <c r="F17">
-        <v>0.9847171810772888</v>
+        <v>1.01897489596444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033213630346242</v>
+        <v>1.042361394846248</v>
       </c>
       <c r="J17">
-        <v>0.992484938125373</v>
+        <v>1.022119513986433</v>
       </c>
       <c r="K17">
-        <v>1.005119527640058</v>
+        <v>1.030572837473732</v>
       </c>
       <c r="L17">
-        <v>0.9891717402943832</v>
+        <v>1.024656630578806</v>
       </c>
       <c r="M17">
-        <v>0.9989985869075784</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.032658209797083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9661364136165153</v>
+        <v>0.9962227157303933</v>
       </c>
       <c r="D18">
-        <v>0.9929759604408775</v>
+        <v>1.018226202989719</v>
       </c>
       <c r="E18">
-        <v>0.9769540246819753</v>
+        <v>1.012330246726934</v>
       </c>
       <c r="F18">
-        <v>0.9870537897391868</v>
+        <v>1.020528442434314</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034196117391809</v>
+        <v>1.0428476185018</v>
       </c>
       <c r="J18">
-        <v>0.9945427448828276</v>
+        <v>1.023429187760176</v>
       </c>
       <c r="K18">
-        <v>1.006917049536576</v>
+        <v>1.03173757380755</v>
       </c>
       <c r="L18">
-        <v>0.9911827835838131</v>
+        <v>1.025939484961897</v>
       </c>
       <c r="M18">
-        <v>1.00109979724496</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.03400199289547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9670105773837389</v>
+        <v>0.996825085701408</v>
       </c>
       <c r="D19">
-        <v>0.9936606201296726</v>
+        <v>1.018691594547252</v>
       </c>
       <c r="E19">
-        <v>0.9777142787908505</v>
+        <v>1.012837104242086</v>
       </c>
       <c r="F19">
-        <v>0.9878438699254742</v>
+        <v>1.021055400165299</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034527927930749</v>
+        <v>1.043012269024829</v>
       </c>
       <c r="J19">
-        <v>0.9952382398932305</v>
+        <v>1.02387324422759</v>
       </c>
       <c r="K19">
-        <v>1.007524547762086</v>
+        <v>1.032132445815537</v>
       </c>
       <c r="L19">
-        <v>0.9918624326726656</v>
+        <v>1.026374496150869</v>
       </c>
       <c r="M19">
-        <v>1.001810095634547</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.034457675290368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9630708011362432</v>
+        <v>0.9941178382429648</v>
       </c>
       <c r="D20">
-        <v>0.9905756606575821</v>
+        <v>1.016600403182699</v>
       </c>
       <c r="E20">
-        <v>0.9742883516706077</v>
+        <v>1.010559828607996</v>
       </c>
       <c r="F20">
-        <v>0.9842841709742188</v>
+        <v>1.018687807407224</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033031369336867</v>
+        <v>1.042271411967439</v>
       </c>
       <c r="J20">
-        <v>0.9921034434525933</v>
+        <v>1.021877405720694</v>
       </c>
       <c r="K20">
-        <v>1.004786274997765</v>
+        <v>1.030357502717557</v>
       </c>
       <c r="L20">
-        <v>0.9887988955871795</v>
+        <v>1.024419503246545</v>
       </c>
       <c r="M20">
-        <v>0.9986091104153334</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.032409825266321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496890105871236</v>
+        <v>0.9850713287732146</v>
       </c>
       <c r="D21">
-        <v>0.980112380814953</v>
+        <v>1.009620954868305</v>
       </c>
       <c r="E21">
-        <v>0.9626616011413202</v>
+        <v>1.002963404845181</v>
       </c>
       <c r="F21">
-        <v>0.972215171217354</v>
+        <v>1.010789976324898</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027928749475072</v>
+        <v>1.039780741634047</v>
       </c>
       <c r="J21">
-        <v>0.9814519513994578</v>
+        <v>1.015206748897395</v>
       </c>
       <c r="K21">
-        <v>0.9954805865721624</v>
+        <v>1.024422319342382</v>
       </c>
       <c r="L21">
-        <v>0.9783866554534141</v>
+        <v>1.017888851269901</v>
       </c>
       <c r="M21">
-        <v>0.9877427738784289</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.025569772666063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9407796019862713</v>
+        <v>0.9791808136992983</v>
       </c>
       <c r="D22">
-        <v>0.9731601241489061</v>
+        <v>1.005083915529433</v>
       </c>
       <c r="E22">
-        <v>0.9549299488957064</v>
+        <v>0.9980282280899735</v>
       </c>
       <c r="F22">
-        <v>0.9641989761095991</v>
+        <v>1.005658902274047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024517454102288</v>
+        <v>1.038147878067946</v>
       </c>
       <c r="J22">
-        <v>0.9743585397344247</v>
+        <v>1.010862780594266</v>
       </c>
       <c r="K22">
-        <v>0.9892827176825523</v>
+        <v>1.020555327375176</v>
       </c>
       <c r="L22">
-        <v>0.9714504373644735</v>
+        <v>1.013638847628211</v>
       </c>
       <c r="M22">
-        <v>0.9805146595432366</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.021119082621542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9455536806424204</v>
+        <v>0.982323710840672</v>
       </c>
       <c r="D23">
-        <v>0.9768839975613671</v>
+        <v>1.007503888472546</v>
       </c>
       <c r="E23">
-        <v>0.9590719455088119</v>
+        <v>1.000660300390952</v>
       </c>
       <c r="F23">
-        <v>0.9684924895982542</v>
+        <v>1.008395458543855</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026346618757285</v>
+        <v>1.039020101487489</v>
       </c>
       <c r="J23">
-        <v>0.9781596034030742</v>
+        <v>1.013180515994667</v>
       </c>
       <c r="K23">
-        <v>0.9926039295610978</v>
+        <v>1.022618741082577</v>
       </c>
       <c r="L23">
-        <v>0.9751674591569209</v>
+        <v>1.015906179444258</v>
       </c>
       <c r="M23">
-        <v>0.9843870862607398</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.023493412423059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.963287571796924</v>
+        <v>0.9942662854285544</v>
       </c>
       <c r="D24">
-        <v>0.9907453484708453</v>
+        <v>1.01671504105161</v>
       </c>
       <c r="E24">
-        <v>0.974476818056118</v>
+        <v>1.010684651814696</v>
       </c>
       <c r="F24">
-        <v>0.9844799543340462</v>
+        <v>1.018817581658597</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033113785053859</v>
+        <v>1.042312092445024</v>
       </c>
       <c r="J24">
-        <v>0.9922759401761044</v>
+        <v>1.02198685059453</v>
       </c>
       <c r="K24">
-        <v>1.004936959034159</v>
+        <v>1.03045484539838</v>
       </c>
       <c r="L24">
-        <v>0.9889674818833841</v>
+        <v>1.024526695605263</v>
       </c>
       <c r="M24">
-        <v>0.9987852137020872</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.032522106194964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820506121446233</v>
+        <v>1.007335291095976</v>
       </c>
       <c r="D25">
-        <v>1.005453802402037</v>
+        <v>1.026820032128931</v>
       </c>
       <c r="E25">
-        <v>0.9908029086627456</v>
+        <v>1.021695199134669</v>
       </c>
       <c r="F25">
-        <v>1.001459090745407</v>
+        <v>1.030264576793755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040211896892278</v>
+        <v>1.045865860362839</v>
       </c>
       <c r="J25">
-        <v>1.007197521015285</v>
+        <v>1.031618290271047</v>
       </c>
       <c r="K25">
-        <v>1.017968040978213</v>
+        <v>1.039015794287672</v>
       </c>
       <c r="L25">
-        <v>1.003545695413868</v>
+        <v>1.033965808043654</v>
       </c>
       <c r="M25">
-        <v>1.014034798357675</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.042410562390475</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017209636477205</v>
+        <v>1.00780554543441</v>
       </c>
       <c r="D2">
-        <v>1.034469251474666</v>
+        <v>1.02761723591363</v>
       </c>
       <c r="E2">
-        <v>1.030041963036037</v>
+        <v>1.022362011217095</v>
       </c>
       <c r="F2">
-        <v>1.038941722805768</v>
+        <v>1.031271845195543</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048509013863431</v>
+        <v>1.050533730175659</v>
       </c>
       <c r="J2">
-        <v>1.038887517949173</v>
+        <v>1.029755274317619</v>
       </c>
       <c r="K2">
-        <v>1.045468386325388</v>
+        <v>1.038704773138412</v>
       </c>
       <c r="L2">
-        <v>1.041098049013941</v>
+        <v>1.033518356212152</v>
       </c>
       <c r="M2">
-        <v>1.04988394056737</v>
+        <v>1.042312049034379</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024097617810273</v>
+        <v>1.012404790717002</v>
       </c>
       <c r="D3">
-        <v>1.039810935597082</v>
+        <v>1.031063724954062</v>
       </c>
       <c r="E3">
-        <v>1.035878327031094</v>
+        <v>1.026148903665483</v>
       </c>
       <c r="F3">
-        <v>1.045008780387056</v>
+        <v>1.035300748487026</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050327215590168</v>
+        <v>1.051792057256412</v>
       </c>
       <c r="J3">
-        <v>1.043952239155741</v>
+        <v>1.032562907491627</v>
       </c>
       <c r="K3">
-        <v>1.049958560024256</v>
+        <v>1.041313988155932</v>
       </c>
       <c r="L3">
-        <v>1.046071830844657</v>
+        <v>1.036457789197794</v>
       </c>
       <c r="M3">
-        <v>1.055096418815607</v>
+        <v>1.045501026890026</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028434996305096</v>
+        <v>1.015319640658813</v>
       </c>
       <c r="D4">
-        <v>1.043176608474053</v>
+        <v>1.033248378918516</v>
       </c>
       <c r="E4">
-        <v>1.039559366680546</v>
+        <v>1.028554531542262</v>
       </c>
       <c r="F4">
-        <v>1.048835157869691</v>
+        <v>1.037858827211261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051459903453976</v>
+        <v>1.052574656044944</v>
       </c>
       <c r="J4">
-        <v>1.047138277010441</v>
+        <v>1.034339423930575</v>
       </c>
       <c r="K4">
-        <v>1.052780427338194</v>
+        <v>1.042961425864906</v>
       </c>
       <c r="L4">
-        <v>1.049202684860977</v>
+        <v>1.038320123164427</v>
       </c>
       <c r="M4">
-        <v>1.058377856572662</v>
+        <v>1.047520831728771</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030231254741164</v>
+        <v>1.016530916561553</v>
       </c>
       <c r="D5">
-        <v>1.044570831787386</v>
+        <v>1.034156251239234</v>
       </c>
       <c r="E5">
-        <v>1.041085139218981</v>
+        <v>1.029555501764425</v>
       </c>
       <c r="F5">
-        <v>1.050421131387297</v>
+        <v>1.038922923027856</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051925992779036</v>
+        <v>1.052896240281334</v>
       </c>
       <c r="J5">
-        <v>1.048456888931655</v>
+        <v>1.03507693580318</v>
       </c>
       <c r="K5">
-        <v>1.053947637180886</v>
+        <v>1.043644485713337</v>
       </c>
       <c r="L5">
-        <v>1.050498935306212</v>
+        <v>1.039093842535617</v>
       </c>
       <c r="M5">
-        <v>1.059736526597616</v>
+        <v>1.048359817663533</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030531301250669</v>
+        <v>1.016733481250021</v>
       </c>
       <c r="D6">
-        <v>1.044803742156372</v>
+        <v>1.034308077153104</v>
       </c>
       <c r="E6">
-        <v>1.041340079595555</v>
+        <v>1.029722971843486</v>
       </c>
       <c r="F6">
-        <v>1.050686128255437</v>
+        <v>1.039100936384363</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052003670355176</v>
+        <v>1.052949804781753</v>
       </c>
       <c r="J6">
-        <v>1.048677098577584</v>
+        <v>1.035200228028756</v>
       </c>
       <c r="K6">
-        <v>1.05414252172036</v>
+        <v>1.043758623587487</v>
       </c>
       <c r="L6">
-        <v>1.050715438432939</v>
+        <v>1.039223221828907</v>
       </c>
       <c r="M6">
-        <v>1.059963459423327</v>
+        <v>1.048500101387351</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028459102930489</v>
+        <v>1.015335880630206</v>
       </c>
       <c r="D7">
-        <v>1.04319531821639</v>
+        <v>1.033260551010986</v>
       </c>
       <c r="E7">
-        <v>1.039579838114437</v>
+        <v>1.028567946786488</v>
       </c>
       <c r="F7">
-        <v>1.048856437189594</v>
+        <v>1.037873089697561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051466170517259</v>
+        <v>1.052578982031992</v>
       </c>
       <c r="J7">
-        <v>1.047155976784997</v>
+        <v>1.034349314908045</v>
       </c>
       <c r="K7">
-        <v>1.052796097567027</v>
+        <v>1.042970590016587</v>
       </c>
       <c r="L7">
-        <v>1.049220082596848</v>
+        <v>1.038330497435595</v>
       </c>
       <c r="M7">
-        <v>1.058396091791327</v>
+        <v>1.047532081735008</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01956314066661</v>
+        <v>1.009372867161311</v>
       </c>
       <c r="D8">
-        <v>1.036293928645501</v>
+        <v>1.028791606058184</v>
       </c>
       <c r="E8">
-        <v>1.032034860403718</v>
+        <v>1.023651293995827</v>
       </c>
       <c r="F8">
-        <v>1.041013426280582</v>
+        <v>1.03264379245321</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049132802471484</v>
+        <v>1.050965628532743</v>
       </c>
       <c r="J8">
-        <v>1.040618686855916</v>
+        <v>1.030712632557597</v>
       </c>
       <c r="K8">
-        <v>1.04700373268199</v>
+        <v>1.039595203855124</v>
       </c>
       <c r="L8">
-        <v>1.042797702554322</v>
+        <v>1.034520147322377</v>
       </c>
       <c r="M8">
-        <v>1.051665088960086</v>
+        <v>1.04339901817378</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002899497436325</v>
+        <v>0.9983721671175537</v>
       </c>
       <c r="D9">
-        <v>1.023387621407149</v>
+        <v>1.02055314283125</v>
       </c>
       <c r="E9">
-        <v>1.017953362135311</v>
+        <v>1.014627915840004</v>
       </c>
       <c r="F9">
-        <v>1.02637448547272</v>
+        <v>1.023036410830444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04466613842249</v>
+        <v>1.047873319244939</v>
       </c>
       <c r="J9">
-        <v>1.028350280814668</v>
+        <v>1.023982539604233</v>
       </c>
       <c r="K9">
-        <v>1.036112313960305</v>
+        <v>1.033321334107651</v>
       </c>
       <c r="L9">
-        <v>1.030761722471743</v>
+        <v>1.027488041125547</v>
       </c>
       <c r="M9">
-        <v>1.039053672087834</v>
+        <v>1.035766476473046</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9910147830631495</v>
+        <v>0.9906701180597297</v>
       </c>
       <c r="D10">
-        <v>1.014204868934782</v>
+        <v>1.01479335047397</v>
       </c>
       <c r="E10">
-        <v>1.007951854442125</v>
+        <v>1.008345419528964</v>
       </c>
       <c r="F10">
-        <v>1.015976376225485</v>
+        <v>1.016340358579936</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041419594337517</v>
+        <v>1.045633386930078</v>
       </c>
       <c r="J10">
-        <v>1.019589485970227</v>
+        <v>1.019258857125389</v>
       </c>
       <c r="K10">
-        <v>1.028322300614454</v>
+        <v>1.028900546458488</v>
       </c>
       <c r="L10">
-        <v>1.022179004779963</v>
+        <v>1.022565612127047</v>
       </c>
       <c r="M10">
-        <v>1.030063041794881</v>
+        <v>1.030420719982008</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.985655927605435</v>
+        <v>0.9872387900241573</v>
       </c>
       <c r="D11">
-        <v>1.010071564393105</v>
+        <v>1.012230291368848</v>
       </c>
       <c r="E11">
-        <v>1.003453673864923</v>
+        <v>1.00555565040349</v>
       </c>
       <c r="F11">
-        <v>1.011299703154991</v>
+        <v>1.013365292083172</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039942342890481</v>
+        <v>1.044618551550496</v>
       </c>
       <c r="J11">
-        <v>1.015637856124497</v>
+        <v>1.017152258202226</v>
       </c>
       <c r="K11">
-        <v>1.02480601275555</v>
+        <v>1.026925190098144</v>
       </c>
       <c r="L11">
-        <v>1.018310751541747</v>
+        <v>1.020373550347544</v>
       </c>
       <c r="M11">
-        <v>1.026011624055283</v>
+        <v>1.028039484634024</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9836306713877386</v>
+        <v>0.9859489534486723</v>
       </c>
       <c r="D12">
-        <v>1.008510748294398</v>
+        <v>1.011267374842646</v>
       </c>
       <c r="E12">
-        <v>1.001755579543731</v>
+        <v>1.004508420578626</v>
       </c>
       <c r="F12">
-        <v>1.009534212315612</v>
+        <v>1.01224825534787</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039382141366274</v>
+        <v>1.044234605638502</v>
       </c>
       <c r="J12">
-        <v>1.014144338856998</v>
+        <v>1.01636011751577</v>
       </c>
       <c r="K12">
-        <v>1.023476692240028</v>
+        <v>1.026181847198031</v>
       </c>
       <c r="L12">
-        <v>1.016849222533069</v>
+        <v>1.019549753097121</v>
       </c>
       <c r="M12">
-        <v>1.024481003371325</v>
+        <v>1.027144500945418</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9840667160029223</v>
+        <v>0.9862263334662781</v>
       </c>
       <c r="D13">
-        <v>1.008846736801821</v>
+        <v>1.011474424744328</v>
       </c>
       <c r="E13">
-        <v>1.002121097089611</v>
+        <v>1.004733561419665</v>
       </c>
       <c r="F13">
-        <v>1.009914237653856</v>
+        <v>1.012488415059555</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039502839105661</v>
+        <v>1.044317283742786</v>
       </c>
       <c r="J13">
-        <v>1.01446590033693</v>
+        <v>1.016530479071418</v>
       </c>
       <c r="K13">
-        <v>1.023762916054674</v>
+        <v>1.026341738672588</v>
       </c>
       <c r="L13">
-        <v>1.017163874995173</v>
+        <v>1.019726901123742</v>
       </c>
       <c r="M13">
-        <v>1.024810525310795</v>
+        <v>1.027336960911249</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9854892452143104</v>
+        <v>0.9871324885761195</v>
       </c>
       <c r="D14">
-        <v>1.009943079374003</v>
+        <v>1.012150921462333</v>
       </c>
       <c r="E14">
-        <v>1.003313878216764</v>
+        <v>1.005469313517957</v>
       </c>
       <c r="F14">
-        <v>1.011154359355303</v>
+        <v>1.013273205177453</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039896275355417</v>
+        <v>1.044586958524768</v>
       </c>
       <c r="J14">
-        <v>1.015514937966745</v>
+        <v>1.017086979357196</v>
       </c>
       <c r="K14">
-        <v>1.024696614840692</v>
+        <v>1.026863943690812</v>
       </c>
       <c r="L14">
-        <v>1.018190456288188</v>
+        <v>1.020305652969924</v>
       </c>
       <c r="M14">
-        <v>1.025885639667477</v>
+        <v>1.027965721932485</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9863610203886296</v>
+        <v>0.987688749171387</v>
       </c>
       <c r="D15">
-        <v>1.010615129120614</v>
+        <v>1.012566275534039</v>
       </c>
       <c r="E15">
-        <v>1.004045109305878</v>
+        <v>1.005921161672634</v>
       </c>
       <c r="F15">
-        <v>1.011914610678919</v>
+        <v>1.01375513615179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040137138843519</v>
+        <v>1.044752180215756</v>
       </c>
       <c r="J15">
-        <v>1.01615781636912</v>
+        <v>1.017428563742701</v>
       </c>
       <c r="K15">
-        <v>1.025268766963126</v>
+        <v>1.027184405154336</v>
       </c>
       <c r="L15">
-        <v>1.018819636019869</v>
+        <v>1.020660958919758</v>
       </c>
       <c r="M15">
-        <v>1.026544579901383</v>
+        <v>1.028351717265793</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9913657210822291</v>
+        <v>0.9908957464459341</v>
       </c>
       <c r="D16">
-        <v>1.014475713681814</v>
+        <v>1.014961955021419</v>
       </c>
       <c r="E16">
-        <v>1.008246680871398</v>
+        <v>1.008529058248296</v>
       </c>
       <c r="F16">
-        <v>1.016282899476355</v>
+        <v>1.016536160036789</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041516066936764</v>
+        <v>1.045699771431294</v>
       </c>
       <c r="J16">
-        <v>1.019848249516304</v>
+        <v>1.019397336973464</v>
       </c>
       <c r="K16">
-        <v>1.028552507526532</v>
+        <v>1.029030320963549</v>
       </c>
       <c r="L16">
-        <v>1.022432373291691</v>
+        <v>1.022709776293914</v>
       </c>
       <c r="M16">
-        <v>1.030328422469736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.030577312194407</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.994446226689898</v>
+        <v>0.9928810694347741</v>
       </c>
       <c r="D17">
-        <v>1.016854004676509</v>
+        <v>1.016445869851753</v>
       </c>
       <c r="E17">
-        <v>1.010835964467119</v>
+        <v>1.010145958715654</v>
       </c>
       <c r="F17">
-        <v>1.01897489596444</v>
+        <v>1.018259961979825</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042361394846248</v>
+        <v>1.046281976693342</v>
       </c>
       <c r="J17">
-        <v>1.022119513986433</v>
+        <v>1.020615593449308</v>
       </c>
       <c r="K17">
-        <v>1.030572837473732</v>
+        <v>1.030171559688349</v>
       </c>
       <c r="L17">
-        <v>1.024656630578806</v>
+        <v>1.023978400811341</v>
       </c>
       <c r="M17">
-        <v>1.032658209797083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.031955227640394</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9962227157303933</v>
+        <v>0.9940298427187985</v>
       </c>
       <c r="D18">
-        <v>1.018226202989719</v>
+        <v>1.017304788091441</v>
       </c>
       <c r="E18">
-        <v>1.012330246726934</v>
+        <v>1.011082412286561</v>
       </c>
       <c r="F18">
-        <v>1.020528442434314</v>
+        <v>1.01925817188526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0428476185018</v>
+        <v>1.046617249218666</v>
       </c>
       <c r="J18">
-        <v>1.023429187760176</v>
+        <v>1.021320308334498</v>
       </c>
       <c r="K18">
-        <v>1.03173757380755</v>
+        <v>1.030831357301917</v>
       </c>
       <c r="L18">
-        <v>1.025939484961897</v>
+        <v>1.024712552078702</v>
       </c>
       <c r="M18">
-        <v>1.03400199289547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.032752562719208</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.996825085701408</v>
+        <v>0.9944200028184093</v>
       </c>
       <c r="D19">
-        <v>1.018691594547252</v>
+        <v>1.017596548395928</v>
       </c>
       <c r="E19">
-        <v>1.012837104242086</v>
+        <v>1.011400605912371</v>
       </c>
       <c r="F19">
-        <v>1.021055400165299</v>
+        <v>1.01959732276794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043012269024829</v>
+        <v>1.046730843119058</v>
       </c>
       <c r="J19">
-        <v>1.02387324422759</v>
+        <v>1.021559615082533</v>
       </c>
       <c r="K19">
-        <v>1.032132445815537</v>
+        <v>1.031055348387411</v>
       </c>
       <c r="L19">
-        <v>1.026374496150869</v>
+        <v>1.024961905679242</v>
       </c>
       <c r="M19">
-        <v>1.034457675290368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.033023365832424</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9941178382429648</v>
+        <v>0.9926690237324102</v>
       </c>
       <c r="D20">
-        <v>1.016600403182699</v>
+        <v>1.016287348587084</v>
       </c>
       <c r="E20">
-        <v>1.010559828607996</v>
+        <v>1.009973173084701</v>
       </c>
       <c r="F20">
-        <v>1.018687807407224</v>
+        <v>1.018075768941549</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042271411967439</v>
+        <v>1.046219959890679</v>
       </c>
       <c r="J20">
-        <v>1.021877405720694</v>
+        <v>1.020485496801901</v>
       </c>
       <c r="K20">
-        <v>1.030357502717557</v>
+        <v>1.030049725461565</v>
       </c>
       <c r="L20">
-        <v>1.024419503246545</v>
+        <v>1.023842894206961</v>
       </c>
       <c r="M20">
-        <v>1.032409825266321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.031808053723847</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9850713287732146</v>
+        <v>0.986866077421759</v>
       </c>
       <c r="D21">
-        <v>1.009620954868305</v>
+        <v>1.011952014724782</v>
       </c>
       <c r="E21">
-        <v>1.002963404845181</v>
+        <v>1.005252960785008</v>
       </c>
       <c r="F21">
-        <v>1.010789976324898</v>
+        <v>1.013042439369698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039780741634047</v>
+        <v>1.044507741023304</v>
       </c>
       <c r="J21">
-        <v>1.015206748897395</v>
+        <v>1.016923374299922</v>
       </c>
       <c r="K21">
-        <v>1.024422319342382</v>
+        <v>1.026710436099836</v>
       </c>
       <c r="L21">
-        <v>1.017888851269901</v>
+        <v>1.020135492959208</v>
       </c>
       <c r="M21">
-        <v>1.025569772666063</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.027780861143681</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9791808136992983</v>
+        <v>0.9831286284193765</v>
       </c>
       <c r="D22">
-        <v>1.005083915529433</v>
+        <v>1.009162977691124</v>
       </c>
       <c r="E22">
-        <v>0.9980282280899735</v>
+        <v>1.002221313334948</v>
       </c>
       <c r="F22">
-        <v>1.005658902274047</v>
+        <v>1.009808233177713</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038147878067946</v>
+        <v>1.043390622252752</v>
       </c>
       <c r="J22">
-        <v>1.010862780594266</v>
+        <v>1.014627608006667</v>
       </c>
       <c r="K22">
-        <v>1.020555327375176</v>
+        <v>1.024555073732174</v>
       </c>
       <c r="L22">
-        <v>1.013638847628211</v>
+        <v>1.017748893637707</v>
       </c>
       <c r="M22">
-        <v>1.021119082621542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.025187859373026</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.982323710840672</v>
+        <v>0.985118638473198</v>
       </c>
       <c r="D23">
-        <v>1.007503888472546</v>
+        <v>1.010647673457295</v>
       </c>
       <c r="E23">
-        <v>1.000660300390952</v>
+        <v>1.00383469688645</v>
       </c>
       <c r="F23">
-        <v>1.008395458543855</v>
+        <v>1.011529551744075</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039020101487489</v>
+        <v>1.043986759326522</v>
       </c>
       <c r="J23">
-        <v>1.013180515994667</v>
+        <v>1.015850118545488</v>
       </c>
       <c r="K23">
-        <v>1.022618741082577</v>
+        <v>1.02570311253558</v>
       </c>
       <c r="L23">
-        <v>1.015906179444258</v>
+        <v>1.019019508581476</v>
       </c>
       <c r="M23">
-        <v>1.023493412423059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.026568411066235</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9942662854285544</v>
+        <v>0.9927648665275827</v>
       </c>
       <c r="D24">
-        <v>1.01671504105161</v>
+        <v>1.016358997956784</v>
       </c>
       <c r="E24">
-        <v>1.010684651814696</v>
+        <v>1.01005126800595</v>
       </c>
       <c r="F24">
-        <v>1.018817581658597</v>
+        <v>1.018159020222341</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042312092445024</v>
+        <v>1.04624799594047</v>
       </c>
       <c r="J24">
-        <v>1.02198685059453</v>
+        <v>1.020544299994378</v>
       </c>
       <c r="K24">
-        <v>1.03045484539838</v>
+        <v>1.03010479520623</v>
       </c>
       <c r="L24">
-        <v>1.024526695605263</v>
+        <v>1.023904141748228</v>
       </c>
       <c r="M24">
-        <v>1.032522106194964</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.031874574960704</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007335291095976</v>
+        <v>1.001278177916243</v>
       </c>
       <c r="D25">
-        <v>1.026820032128931</v>
+        <v>1.022728352362134</v>
       </c>
       <c r="E25">
-        <v>1.021695199134669</v>
+        <v>1.017005780679873</v>
       </c>
       <c r="F25">
-        <v>1.030264576793755</v>
+        <v>1.025569370851591</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045865860362839</v>
+        <v>1.048703367693746</v>
       </c>
       <c r="J25">
-        <v>1.031618290271047</v>
+        <v>1.025762602710617</v>
       </c>
       <c r="K25">
-        <v>1.039015794287672</v>
+        <v>1.034983795733233</v>
       </c>
       <c r="L25">
-        <v>1.033965808043654</v>
+        <v>1.029345717446793</v>
       </c>
       <c r="M25">
-        <v>1.042410562390475</v>
+        <v>1.03778331105306</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00780554543441</v>
+        <v>1.038642423396848</v>
       </c>
       <c r="D2">
-        <v>1.02761723591363</v>
+        <v>1.044516097984918</v>
       </c>
       <c r="E2">
-        <v>1.022362011217095</v>
+        <v>1.046499221168531</v>
       </c>
       <c r="F2">
-        <v>1.031271845195543</v>
+        <v>1.055492008821157</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050533730175659</v>
+        <v>1.036868983144936</v>
       </c>
       <c r="J2">
-        <v>1.029755274317619</v>
+        <v>1.043738752650489</v>
       </c>
       <c r="K2">
-        <v>1.038704773138412</v>
+        <v>1.047286928701409</v>
       </c>
       <c r="L2">
-        <v>1.033518356212152</v>
+        <v>1.049264485977202</v>
       </c>
       <c r="M2">
-        <v>1.042312049034379</v>
+        <v>1.058232318552414</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012404790717002</v>
+        <v>1.039616177363465</v>
       </c>
       <c r="D3">
-        <v>1.031063724954062</v>
+        <v>1.04525444585178</v>
       </c>
       <c r="E3">
-        <v>1.026148903665483</v>
+        <v>1.047349578577585</v>
       </c>
       <c r="F3">
-        <v>1.035300748487026</v>
+        <v>1.056392440981088</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051792057256412</v>
+        <v>1.037043910859589</v>
       </c>
       <c r="J3">
-        <v>1.032562907491627</v>
+        <v>1.044357262356669</v>
       </c>
       <c r="K3">
-        <v>1.041313988155932</v>
+        <v>1.047836720561547</v>
       </c>
       <c r="L3">
-        <v>1.036457789197794</v>
+        <v>1.049926397693937</v>
       </c>
       <c r="M3">
-        <v>1.045501026890026</v>
+        <v>1.058945980818657</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015319640658813</v>
+        <v>1.040246583607187</v>
       </c>
       <c r="D4">
-        <v>1.033248378918516</v>
+        <v>1.045732098966551</v>
       </c>
       <c r="E4">
-        <v>1.028554531542262</v>
+        <v>1.047900433007013</v>
       </c>
       <c r="F4">
-        <v>1.037858827211261</v>
+        <v>1.056975590338033</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052574656044944</v>
+        <v>1.037155301556385</v>
       </c>
       <c r="J4">
-        <v>1.034339423930575</v>
+        <v>1.044757192132871</v>
       </c>
       <c r="K4">
-        <v>1.042961425864906</v>
+        <v>1.048191698784552</v>
       </c>
       <c r="L4">
-        <v>1.038320123164427</v>
+        <v>1.050354670623626</v>
       </c>
       <c r="M4">
-        <v>1.047520831728771</v>
+        <v>1.059407642136564</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016530916561553</v>
+        <v>1.04051168265867</v>
       </c>
       <c r="D5">
-        <v>1.034156251239234</v>
+        <v>1.045932877220013</v>
       </c>
       <c r="E5">
-        <v>1.029555501764425</v>
+        <v>1.048132158427586</v>
       </c>
       <c r="F5">
-        <v>1.038922923027856</v>
+        <v>1.05722086690573</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052896240281334</v>
+        <v>1.03720169874556</v>
       </c>
       <c r="J5">
-        <v>1.03507693580318</v>
+        <v>1.044925252833738</v>
       </c>
       <c r="K5">
-        <v>1.043644485713337</v>
+        <v>1.048340745256467</v>
       </c>
       <c r="L5">
-        <v>1.039093842535617</v>
+        <v>1.050534708735926</v>
       </c>
       <c r="M5">
-        <v>1.048359817663533</v>
+        <v>1.059601693209534</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016733481250021</v>
+        <v>1.040556198402182</v>
       </c>
       <c r="D6">
-        <v>1.034308077153104</v>
+        <v>1.04596658714069</v>
       </c>
       <c r="E6">
-        <v>1.029722971843486</v>
+        <v>1.048171074680906</v>
       </c>
       <c r="F6">
-        <v>1.039100936384363</v>
+        <v>1.057262056950497</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052949804781753</v>
+        <v>1.037209463715757</v>
       </c>
       <c r="J6">
-        <v>1.035200228028756</v>
+        <v>1.044953466844552</v>
       </c>
       <c r="K6">
-        <v>1.043758623587487</v>
+        <v>1.04836575985368</v>
       </c>
       <c r="L6">
-        <v>1.039223221828907</v>
+        <v>1.050564937436921</v>
       </c>
       <c r="M6">
-        <v>1.048500101387351</v>
+        <v>1.059634273365297</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015335880630206</v>
+        <v>1.040250125575135</v>
       </c>
       <c r="D7">
-        <v>1.033260551010986</v>
+        <v>1.045734781883747</v>
       </c>
       <c r="E7">
-        <v>1.028567946786488</v>
+        <v>1.047903528760565</v>
       </c>
       <c r="F7">
-        <v>1.037873089697561</v>
+        <v>1.056978867263522</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052578982031992</v>
+        <v>1.037155923214151</v>
       </c>
       <c r="J7">
-        <v>1.034349314908045</v>
+        <v>1.044759438043598</v>
       </c>
       <c r="K7">
-        <v>1.042970590016587</v>
+        <v>1.048193691084524</v>
       </c>
       <c r="L7">
-        <v>1.038330497435595</v>
+        <v>1.050357076333805</v>
       </c>
       <c r="M7">
-        <v>1.047532081735008</v>
+        <v>1.059410235181189</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009372867161311</v>
+        <v>1.038971440833103</v>
       </c>
       <c r="D8">
-        <v>1.028791606058184</v>
+        <v>1.044765647473418</v>
       </c>
       <c r="E8">
-        <v>1.023651293995827</v>
+        <v>1.046786475023407</v>
       </c>
       <c r="F8">
-        <v>1.03264379245321</v>
+        <v>1.055796207737536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050965628532743</v>
+        <v>1.036928472896356</v>
       </c>
       <c r="J8">
-        <v>1.030712632557597</v>
+        <v>1.04394783981248</v>
       </c>
       <c r="K8">
-        <v>1.039595203855124</v>
+        <v>1.047472893007044</v>
       </c>
       <c r="L8">
-        <v>1.034520147322377</v>
+        <v>1.04948818733812</v>
       </c>
       <c r="M8">
-        <v>1.04339901817378</v>
+        <v>1.058473529398671</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9983721671175537</v>
+        <v>1.036720742773146</v>
       </c>
       <c r="D9">
-        <v>1.02055314283125</v>
+        <v>1.043057149233229</v>
       </c>
       <c r="E9">
-        <v>1.014627915840004</v>
+        <v>1.044822862425213</v>
       </c>
       <c r="F9">
-        <v>1.023036410830444</v>
+        <v>1.053716174823376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047873319244939</v>
+        <v>1.03651392792973</v>
       </c>
       <c r="J9">
-        <v>1.023982539604233</v>
+        <v>1.042515542268365</v>
       </c>
       <c r="K9">
-        <v>1.033321334107651</v>
+        <v>1.04619687624649</v>
       </c>
       <c r="L9">
-        <v>1.027488041125547</v>
+        <v>1.047956924980987</v>
       </c>
       <c r="M9">
-        <v>1.035766476473046</v>
+        <v>1.056822022952031</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9906701180597297</v>
+        <v>1.035222014608788</v>
       </c>
       <c r="D10">
-        <v>1.01479335047397</v>
+        <v>1.041917722671085</v>
       </c>
       <c r="E10">
-        <v>1.008345419528964</v>
+        <v>1.043517078096146</v>
       </c>
       <c r="F10">
-        <v>1.016340358579936</v>
+        <v>1.05233223361457</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045633386930078</v>
+        <v>1.036228362666383</v>
       </c>
       <c r="J10">
-        <v>1.019258857125389</v>
+        <v>1.041559283414112</v>
       </c>
       <c r="K10">
-        <v>1.028900546458488</v>
+        <v>1.045342310310747</v>
       </c>
       <c r="L10">
-        <v>1.022565612127047</v>
+        <v>1.046936032291316</v>
       </c>
       <c r="M10">
-        <v>1.030420719982008</v>
+        <v>1.055720476266042</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9872387900241573</v>
+        <v>1.034573470977231</v>
       </c>
       <c r="D11">
-        <v>1.012230291368848</v>
+        <v>1.041424254068163</v>
       </c>
       <c r="E11">
-        <v>1.00555565040349</v>
+        <v>1.042952455624236</v>
       </c>
       <c r="F11">
-        <v>1.013365292083172</v>
+        <v>1.05173364033933</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044618551550496</v>
+        <v>1.036102535716332</v>
       </c>
       <c r="J11">
-        <v>1.017152258202226</v>
+        <v>1.041144893814154</v>
       </c>
       <c r="K11">
-        <v>1.026925190098144</v>
+        <v>1.044971364806084</v>
       </c>
       <c r="L11">
-        <v>1.020373550347544</v>
+        <v>1.046493975189004</v>
       </c>
       <c r="M11">
-        <v>1.028039484634024</v>
+        <v>1.055243380175141</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9859489534486723</v>
+        <v>1.034332636175688</v>
       </c>
       <c r="D12">
-        <v>1.011267374842646</v>
+        <v>1.041240945767738</v>
       </c>
       <c r="E12">
-        <v>1.004508420578626</v>
+        <v>1.042742849758554</v>
       </c>
       <c r="F12">
-        <v>1.01224825534787</v>
+        <v>1.051511396983049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044234605638502</v>
+        <v>1.036055471810863</v>
       </c>
       <c r="J12">
-        <v>1.01636011751577</v>
+        <v>1.04099092339964</v>
       </c>
       <c r="K12">
-        <v>1.026181847198031</v>
+        <v>1.044833443002753</v>
       </c>
       <c r="L12">
-        <v>1.019549753097121</v>
+        <v>1.046329775916221</v>
       </c>
       <c r="M12">
-        <v>1.027144500945418</v>
+        <v>1.055066148667759</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9862263334662781</v>
+        <v>1.034384293187135</v>
       </c>
       <c r="D13">
-        <v>1.011474424744328</v>
+        <v>1.041280266546077</v>
       </c>
       <c r="E13">
-        <v>1.004733561419665</v>
+        <v>1.042787805475136</v>
       </c>
       <c r="F13">
-        <v>1.012488415059555</v>
+        <v>1.051559064353082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044317283742786</v>
+        <v>1.036065581928137</v>
       </c>
       <c r="J13">
-        <v>1.016530479071418</v>
+        <v>1.041023952718935</v>
       </c>
       <c r="K13">
-        <v>1.026341738672588</v>
+        <v>1.04486303384154</v>
       </c>
       <c r="L13">
-        <v>1.019726901123742</v>
+        <v>1.046364997182809</v>
       </c>
       <c r="M13">
-        <v>1.027336960911249</v>
+        <v>1.055104166168982</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9871324885761195</v>
+        <v>1.034553562204236</v>
       </c>
       <c r="D14">
-        <v>1.012150921462333</v>
+        <v>1.041409101985769</v>
       </c>
       <c r="E14">
-        <v>1.005469313517957</v>
+        <v>1.042935127081541</v>
       </c>
       <c r="F14">
-        <v>1.013273205177453</v>
+        <v>1.051715267569474</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044586958524768</v>
+        <v>1.036098652049374</v>
       </c>
       <c r="J14">
-        <v>1.017086979357196</v>
+        <v>1.041132167538892</v>
       </c>
       <c r="K14">
-        <v>1.026863943690812</v>
+        <v>1.04495996691789</v>
       </c>
       <c r="L14">
-        <v>1.020305652969924</v>
+        <v>1.046480402411642</v>
       </c>
       <c r="M14">
-        <v>1.027965721932485</v>
+        <v>1.055228730499237</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.987688749171387</v>
+        <v>1.03465786282654</v>
       </c>
       <c r="D15">
-        <v>1.012566275534039</v>
+        <v>1.041488480190231</v>
       </c>
       <c r="E15">
-        <v>1.005921161672634</v>
+        <v>1.043025912732169</v>
       </c>
       <c r="F15">
-        <v>1.01375513615179</v>
+        <v>1.051811522927956</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044752180215756</v>
+        <v>1.036118984440454</v>
       </c>
       <c r="J15">
-        <v>1.017428563742701</v>
+        <v>1.041198835971372</v>
       </c>
       <c r="K15">
-        <v>1.027184405154336</v>
+        <v>1.045019672577577</v>
       </c>
       <c r="L15">
-        <v>1.020660958919758</v>
+        <v>1.046551507466972</v>
       </c>
       <c r="M15">
-        <v>1.028351717265793</v>
+        <v>1.055305476504573</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9908957464459341</v>
+        <v>1.035265065132704</v>
       </c>
       <c r="D16">
-        <v>1.014961955021419</v>
+        <v>1.041950470788316</v>
       </c>
       <c r="E16">
-        <v>1.008529058248296</v>
+        <v>1.043554566997882</v>
       </c>
       <c r="F16">
-        <v>1.016536160036789</v>
+        <v>1.052371974347639</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045699771431294</v>
+        <v>1.036236667610283</v>
       </c>
       <c r="J16">
-        <v>1.019397336973464</v>
+        <v>1.041586778353697</v>
       </c>
       <c r="K16">
-        <v>1.029030320963549</v>
+        <v>1.04536690959687</v>
       </c>
       <c r="L16">
-        <v>1.022709776293914</v>
+        <v>1.046965370169449</v>
       </c>
       <c r="M16">
-        <v>1.030577312194407</v>
+        <v>1.055752137148386</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9928810694347741</v>
+        <v>1.035646058880332</v>
       </c>
       <c r="D17">
-        <v>1.016445869851753</v>
+        <v>1.04224024230194</v>
       </c>
       <c r="E17">
-        <v>1.010145958715654</v>
+        <v>1.043886390449609</v>
       </c>
       <c r="F17">
-        <v>1.018259961979825</v>
+        <v>1.052723708993159</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046281976693342</v>
+        <v>1.036309905216252</v>
       </c>
       <c r="J17">
-        <v>1.020615593449308</v>
+        <v>1.041830038459856</v>
       </c>
       <c r="K17">
-        <v>1.030171559688349</v>
+        <v>1.045584478535729</v>
       </c>
       <c r="L17">
-        <v>1.023978400811341</v>
+        <v>1.047224974985123</v>
       </c>
       <c r="M17">
-        <v>1.031955227640394</v>
+        <v>1.056032284471853</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9940298427187985</v>
+        <v>1.03586832613219</v>
       </c>
       <c r="D18">
-        <v>1.017304788091441</v>
+        <v>1.042409252409722</v>
       </c>
       <c r="E18">
-        <v>1.011082412286561</v>
+        <v>1.04408001366769</v>
       </c>
       <c r="F18">
-        <v>1.01925817188526</v>
+        <v>1.052928933684777</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046617249218666</v>
+        <v>1.036352413544381</v>
       </c>
       <c r="J18">
-        <v>1.021320308334498</v>
+        <v>1.041971896719846</v>
       </c>
       <c r="K18">
-        <v>1.030831357301917</v>
+        <v>1.045711294675646</v>
       </c>
       <c r="L18">
-        <v>1.024712552078702</v>
+        <v>1.047376397645897</v>
       </c>
       <c r="M18">
-        <v>1.032752562719208</v>
+        <v>1.056195678099088</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9944200028184093</v>
+        <v>1.035944120290729</v>
       </c>
       <c r="D19">
-        <v>1.017596548395928</v>
+        <v>1.04246687897006</v>
       </c>
       <c r="E19">
-        <v>1.011400605912371</v>
+        <v>1.044146047070064</v>
       </c>
       <c r="F19">
-        <v>1.01959732276794</v>
+        <v>1.052998920786525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046730843119058</v>
+        <v>1.0363668721587</v>
       </c>
       <c r="J19">
-        <v>1.021559615082533</v>
+        <v>1.042020261393814</v>
       </c>
       <c r="K19">
-        <v>1.031055348387411</v>
+        <v>1.045754520720961</v>
       </c>
       <c r="L19">
-        <v>1.024961905679242</v>
+        <v>1.047428028755885</v>
       </c>
       <c r="M19">
-        <v>1.033023365832424</v>
+        <v>1.056251389107502</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9926690237324102</v>
+        <v>1.035605177709412</v>
       </c>
       <c r="D20">
-        <v>1.016287348587084</v>
+        <v>1.042209153452461</v>
       </c>
       <c r="E20">
-        <v>1.009973173084701</v>
+        <v>1.04385078104142</v>
       </c>
       <c r="F20">
-        <v>1.018075768941549</v>
+        <v>1.052685964583299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046219959890679</v>
+        <v>1.036302069223453</v>
       </c>
       <c r="J20">
-        <v>1.020485496801901</v>
+        <v>1.041803942177913</v>
       </c>
       <c r="K20">
-        <v>1.030049725461565</v>
+        <v>1.045561144557123</v>
       </c>
       <c r="L20">
-        <v>1.023842894206961</v>
+        <v>1.047197121883161</v>
       </c>
       <c r="M20">
-        <v>1.031808053723847</v>
+        <v>1.056002228503619</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.986866077421759</v>
+        <v>1.034503714947546</v>
       </c>
       <c r="D21">
-        <v>1.011952014724782</v>
+        <v>1.041371163482926</v>
       </c>
       <c r="E21">
-        <v>1.005252960785008</v>
+        <v>1.042891741216017</v>
       </c>
       <c r="F21">
-        <v>1.013042439369698</v>
+        <v>1.051669266821289</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044507741023304</v>
+        <v>1.03608892272178</v>
       </c>
       <c r="J21">
-        <v>1.016923374299922</v>
+        <v>1.041100302280277</v>
       </c>
       <c r="K21">
-        <v>1.026710436099836</v>
+        <v>1.044931426292539</v>
       </c>
       <c r="L21">
-        <v>1.020135492959208</v>
+        <v>1.04644641842866</v>
       </c>
       <c r="M21">
-        <v>1.027780861143681</v>
+        <v>1.055192049862816</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9831286284193765</v>
+        <v>1.033811547500661</v>
       </c>
       <c r="D22">
-        <v>1.009162977691124</v>
+        <v>1.040844216641193</v>
       </c>
       <c r="E22">
-        <v>1.002221313334948</v>
+        <v>1.042289450064876</v>
       </c>
       <c r="F22">
-        <v>1.009808233177713</v>
+        <v>1.051030612656967</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043390622252752</v>
+        <v>1.035953022230506</v>
       </c>
       <c r="J22">
-        <v>1.014627608006667</v>
+        <v>1.040657620605641</v>
       </c>
       <c r="K22">
-        <v>1.024555073732174</v>
+        <v>1.044534710338412</v>
       </c>
       <c r="L22">
-        <v>1.017748893637707</v>
+        <v>1.04597442427713</v>
       </c>
       <c r="M22">
-        <v>1.025187859373026</v>
+        <v>1.054682561882387</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.985118638473198</v>
+        <v>1.03417844362686</v>
       </c>
       <c r="D23">
-        <v>1.010647673457295</v>
+        <v>1.041123567254314</v>
       </c>
       <c r="E23">
-        <v>1.00383469688645</v>
+        <v>1.042608669679067</v>
       </c>
       <c r="F23">
-        <v>1.011529551744075</v>
+        <v>1.05136911951019</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043986759326522</v>
+        <v>1.036025244288312</v>
       </c>
       <c r="J23">
-        <v>1.015850118545488</v>
+        <v>1.040892320339576</v>
       </c>
       <c r="K23">
-        <v>1.02570311253558</v>
+        <v>1.044745091241384</v>
       </c>
       <c r="L23">
-        <v>1.019019508581476</v>
+        <v>1.046224636701035</v>
       </c>
       <c r="M23">
-        <v>1.026568411066235</v>
+        <v>1.054952659876683</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9927648665275827</v>
+        <v>1.035623650027111</v>
       </c>
       <c r="D24">
-        <v>1.016358997956784</v>
+        <v>1.042223201192373</v>
       </c>
       <c r="E24">
-        <v>1.01005126800595</v>
+        <v>1.043866871164812</v>
       </c>
       <c r="F24">
-        <v>1.018159020222341</v>
+        <v>1.052703019460326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04624799594047</v>
+        <v>1.036305610619986</v>
       </c>
       <c r="J24">
-        <v>1.020544299994378</v>
+        <v>1.041815734061015</v>
       </c>
       <c r="K24">
-        <v>1.03010479520623</v>
+        <v>1.045571688450066</v>
       </c>
       <c r="L24">
-        <v>1.023904141748228</v>
+        <v>1.047209707502433</v>
       </c>
       <c r="M24">
-        <v>1.031874574960704</v>
+        <v>1.056015809537741</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001278177916243</v>
+        <v>1.03730229971511</v>
       </c>
       <c r="D25">
-        <v>1.022728352362134</v>
+        <v>1.043498918422168</v>
       </c>
       <c r="E25">
-        <v>1.017005780679873</v>
+        <v>1.045329929011062</v>
       </c>
       <c r="F25">
-        <v>1.025569370851591</v>
+        <v>1.05425343493183</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048703367693746</v>
+        <v>1.036622722686599</v>
       </c>
       <c r="J25">
-        <v>1.025762602710617</v>
+        <v>1.042886075342691</v>
       </c>
       <c r="K25">
-        <v>1.034983795733233</v>
+        <v>1.04652744715261</v>
       </c>
       <c r="L25">
-        <v>1.029345717446793</v>
+        <v>1.048352806574322</v>
       </c>
       <c r="M25">
-        <v>1.03778331105306</v>
+        <v>1.057249077680434</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038642423396848</v>
+        <v>1.007805545434412</v>
       </c>
       <c r="D2">
-        <v>1.044516097984918</v>
+        <v>1.027617235913632</v>
       </c>
       <c r="E2">
-        <v>1.046499221168531</v>
+        <v>1.022362011217097</v>
       </c>
       <c r="F2">
-        <v>1.055492008821157</v>
+        <v>1.031271845195545</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036868983144936</v>
+        <v>1.05053373017566</v>
       </c>
       <c r="J2">
-        <v>1.043738752650489</v>
+        <v>1.029755274317621</v>
       </c>
       <c r="K2">
-        <v>1.047286928701409</v>
+        <v>1.038704773138414</v>
       </c>
       <c r="L2">
-        <v>1.049264485977202</v>
+        <v>1.033518356212155</v>
       </c>
       <c r="M2">
-        <v>1.058232318552414</v>
+        <v>1.042312049034382</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039616177363465</v>
+        <v>1.012404790717003</v>
       </c>
       <c r="D3">
-        <v>1.04525444585178</v>
+        <v>1.031063724954063</v>
       </c>
       <c r="E3">
-        <v>1.047349578577585</v>
+        <v>1.026148903665484</v>
       </c>
       <c r="F3">
-        <v>1.056392440981088</v>
+        <v>1.035300748487027</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037043910859589</v>
+        <v>1.051792057256412</v>
       </c>
       <c r="J3">
-        <v>1.044357262356669</v>
+        <v>1.032562907491628</v>
       </c>
       <c r="K3">
-        <v>1.047836720561547</v>
+        <v>1.041313988155933</v>
       </c>
       <c r="L3">
-        <v>1.049926397693937</v>
+        <v>1.036457789197795</v>
       </c>
       <c r="M3">
-        <v>1.058945980818657</v>
+        <v>1.045501026890027</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040246583607187</v>
+        <v>1.015319640658813</v>
       </c>
       <c r="D4">
-        <v>1.045732098966551</v>
+        <v>1.033248378918515</v>
       </c>
       <c r="E4">
-        <v>1.047900433007013</v>
+        <v>1.028554531542262</v>
       </c>
       <c r="F4">
-        <v>1.056975590338033</v>
+        <v>1.037858827211261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037155301556385</v>
+        <v>1.052574656044944</v>
       </c>
       <c r="J4">
-        <v>1.044757192132871</v>
+        <v>1.034339423930574</v>
       </c>
       <c r="K4">
-        <v>1.048191698784552</v>
+        <v>1.042961425864905</v>
       </c>
       <c r="L4">
-        <v>1.050354670623626</v>
+        <v>1.038320123164427</v>
       </c>
       <c r="M4">
-        <v>1.059407642136564</v>
+        <v>1.047520831728771</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04051168265867</v>
+        <v>1.016530916561553</v>
       </c>
       <c r="D5">
-        <v>1.045932877220013</v>
+        <v>1.034156251239234</v>
       </c>
       <c r="E5">
-        <v>1.048132158427586</v>
+        <v>1.029555501764425</v>
       </c>
       <c r="F5">
-        <v>1.05722086690573</v>
+        <v>1.038922923027855</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03720169874556</v>
+        <v>1.052896240281334</v>
       </c>
       <c r="J5">
-        <v>1.044925252833738</v>
+        <v>1.03507693580318</v>
       </c>
       <c r="K5">
-        <v>1.048340745256467</v>
+        <v>1.043644485713336</v>
       </c>
       <c r="L5">
-        <v>1.050534708735926</v>
+        <v>1.039093842535617</v>
       </c>
       <c r="M5">
-        <v>1.059601693209534</v>
+        <v>1.048359817663533</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040556198402182</v>
+        <v>1.016733481250021</v>
       </c>
       <c r="D6">
-        <v>1.04596658714069</v>
+        <v>1.034308077153104</v>
       </c>
       <c r="E6">
-        <v>1.048171074680906</v>
+        <v>1.029722971843486</v>
       </c>
       <c r="F6">
-        <v>1.057262056950497</v>
+        <v>1.039100936384363</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037209463715757</v>
+        <v>1.052949804781752</v>
       </c>
       <c r="J6">
-        <v>1.044953466844552</v>
+        <v>1.035200228028756</v>
       </c>
       <c r="K6">
-        <v>1.04836575985368</v>
+        <v>1.043758623587487</v>
       </c>
       <c r="L6">
-        <v>1.050564937436921</v>
+        <v>1.039223221828907</v>
       </c>
       <c r="M6">
-        <v>1.059634273365297</v>
+        <v>1.048500101387351</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040250125575135</v>
+        <v>1.015335880630207</v>
       </c>
       <c r="D7">
-        <v>1.045734781883747</v>
+        <v>1.033260551010987</v>
       </c>
       <c r="E7">
-        <v>1.047903528760565</v>
+        <v>1.028567946786489</v>
       </c>
       <c r="F7">
-        <v>1.056978867263522</v>
+        <v>1.037873089697561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037155923214151</v>
+        <v>1.052578982031992</v>
       </c>
       <c r="J7">
-        <v>1.044759438043598</v>
+        <v>1.034349314908045</v>
       </c>
       <c r="K7">
-        <v>1.048193691084524</v>
+        <v>1.042970590016588</v>
       </c>
       <c r="L7">
-        <v>1.050357076333805</v>
+        <v>1.038330497435595</v>
       </c>
       <c r="M7">
-        <v>1.059410235181189</v>
+        <v>1.047532081735009</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038971440833103</v>
+        <v>1.009372867161311</v>
       </c>
       <c r="D8">
-        <v>1.044765647473418</v>
+        <v>1.028791606058185</v>
       </c>
       <c r="E8">
-        <v>1.046786475023407</v>
+        <v>1.023651293995827</v>
       </c>
       <c r="F8">
-        <v>1.055796207737536</v>
+        <v>1.03264379245321</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036928472896356</v>
+        <v>1.050965628532743</v>
       </c>
       <c r="J8">
-        <v>1.04394783981248</v>
+        <v>1.030712632557597</v>
       </c>
       <c r="K8">
-        <v>1.047472893007044</v>
+        <v>1.039595203855125</v>
       </c>
       <c r="L8">
-        <v>1.04948818733812</v>
+        <v>1.034520147322377</v>
       </c>
       <c r="M8">
-        <v>1.058473529398671</v>
+        <v>1.04339901817378</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036720742773146</v>
+        <v>0.9983721671175538</v>
       </c>
       <c r="D9">
-        <v>1.043057149233229</v>
+        <v>1.02055314283125</v>
       </c>
       <c r="E9">
-        <v>1.044822862425213</v>
+        <v>1.014627915840004</v>
       </c>
       <c r="F9">
-        <v>1.053716174823376</v>
+        <v>1.023036410830444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03651392792973</v>
+        <v>1.047873319244939</v>
       </c>
       <c r="J9">
-        <v>1.042515542268365</v>
+        <v>1.023982539604234</v>
       </c>
       <c r="K9">
-        <v>1.04619687624649</v>
+        <v>1.033321334107651</v>
       </c>
       <c r="L9">
-        <v>1.047956924980987</v>
+        <v>1.027488041125547</v>
       </c>
       <c r="M9">
-        <v>1.056822022952031</v>
+        <v>1.035766476473046</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035222014608788</v>
+        <v>0.9906701180597298</v>
       </c>
       <c r="D10">
-        <v>1.041917722671085</v>
+        <v>1.014793350473969</v>
       </c>
       <c r="E10">
-        <v>1.043517078096146</v>
+        <v>1.008345419528964</v>
       </c>
       <c r="F10">
-        <v>1.05233223361457</v>
+        <v>1.016340358579936</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036228362666383</v>
+        <v>1.045633386930078</v>
       </c>
       <c r="J10">
-        <v>1.041559283414112</v>
+        <v>1.019258857125389</v>
       </c>
       <c r="K10">
-        <v>1.045342310310747</v>
+        <v>1.028900546458488</v>
       </c>
       <c r="L10">
-        <v>1.046936032291316</v>
+        <v>1.022565612127047</v>
       </c>
       <c r="M10">
-        <v>1.055720476266042</v>
+        <v>1.030420719982007</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034573470977231</v>
+        <v>0.9872387900241577</v>
       </c>
       <c r="D11">
-        <v>1.041424254068163</v>
+        <v>1.012230291368849</v>
       </c>
       <c r="E11">
-        <v>1.042952455624236</v>
+        <v>1.00555565040349</v>
       </c>
       <c r="F11">
-        <v>1.05173364033933</v>
+        <v>1.013365292083172</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036102535716332</v>
+        <v>1.044618551550496</v>
       </c>
       <c r="J11">
-        <v>1.041144893814154</v>
+        <v>1.017152258202227</v>
       </c>
       <c r="K11">
-        <v>1.044971364806084</v>
+        <v>1.026925190098144</v>
       </c>
       <c r="L11">
-        <v>1.046493975189004</v>
+        <v>1.020373550347545</v>
       </c>
       <c r="M11">
-        <v>1.055243380175141</v>
+        <v>1.028039484634024</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034332636175688</v>
+        <v>0.9859489534486725</v>
       </c>
       <c r="D12">
-        <v>1.041240945767738</v>
+        <v>1.011267374842647</v>
       </c>
       <c r="E12">
-        <v>1.042742849758554</v>
+        <v>1.004508420578626</v>
       </c>
       <c r="F12">
-        <v>1.051511396983049</v>
+        <v>1.012248255347871</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036055471810863</v>
+        <v>1.044234605638503</v>
       </c>
       <c r="J12">
-        <v>1.04099092339964</v>
+        <v>1.01636011751577</v>
       </c>
       <c r="K12">
-        <v>1.044833443002753</v>
+        <v>1.026181847198031</v>
       </c>
       <c r="L12">
-        <v>1.046329775916221</v>
+        <v>1.019549753097121</v>
       </c>
       <c r="M12">
-        <v>1.055066148667759</v>
+        <v>1.027144500945419</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034384293187135</v>
+        <v>0.9862263334662771</v>
       </c>
       <c r="D13">
-        <v>1.041280266546077</v>
+        <v>1.011474424744327</v>
       </c>
       <c r="E13">
-        <v>1.042787805475136</v>
+        <v>1.004733561419664</v>
       </c>
       <c r="F13">
-        <v>1.051559064353082</v>
+        <v>1.012488415059553</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036065581928137</v>
+        <v>1.044317283742786</v>
       </c>
       <c r="J13">
-        <v>1.041023952718935</v>
+        <v>1.016530479071417</v>
       </c>
       <c r="K13">
-        <v>1.04486303384154</v>
+        <v>1.026341738672587</v>
       </c>
       <c r="L13">
-        <v>1.046364997182809</v>
+        <v>1.019726901123741</v>
       </c>
       <c r="M13">
-        <v>1.055104166168982</v>
+        <v>1.027336960911248</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034553562204236</v>
+        <v>0.9871324885761181</v>
       </c>
       <c r="D14">
-        <v>1.041409101985769</v>
+        <v>1.012150921462331</v>
       </c>
       <c r="E14">
-        <v>1.042935127081541</v>
+        <v>1.005469313517955</v>
       </c>
       <c r="F14">
-        <v>1.051715267569474</v>
+        <v>1.013273205177451</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036098652049374</v>
+        <v>1.044586958524767</v>
       </c>
       <c r="J14">
-        <v>1.041132167538892</v>
+        <v>1.017086979357195</v>
       </c>
       <c r="K14">
-        <v>1.04495996691789</v>
+        <v>1.02686394369081</v>
       </c>
       <c r="L14">
-        <v>1.046480402411642</v>
+        <v>1.020305652969923</v>
       </c>
       <c r="M14">
-        <v>1.055228730499237</v>
+        <v>1.027965721932483</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03465786282654</v>
+        <v>0.9876887491713856</v>
       </c>
       <c r="D15">
-        <v>1.041488480190231</v>
+        <v>1.012566275534038</v>
       </c>
       <c r="E15">
-        <v>1.043025912732169</v>
+        <v>1.005921161672633</v>
       </c>
       <c r="F15">
-        <v>1.051811522927956</v>
+        <v>1.013755136151789</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036118984440454</v>
+        <v>1.044752180215756</v>
       </c>
       <c r="J15">
-        <v>1.041198835971372</v>
+        <v>1.0174285637427</v>
       </c>
       <c r="K15">
-        <v>1.045019672577577</v>
+        <v>1.027184405154335</v>
       </c>
       <c r="L15">
-        <v>1.046551507466972</v>
+        <v>1.020660958919757</v>
       </c>
       <c r="M15">
-        <v>1.055305476504573</v>
+        <v>1.028351717265792</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035265065132704</v>
+        <v>0.9908957464459343</v>
       </c>
       <c r="D16">
-        <v>1.041950470788316</v>
+        <v>1.014961955021419</v>
       </c>
       <c r="E16">
-        <v>1.043554566997882</v>
+        <v>1.008529058248296</v>
       </c>
       <c r="F16">
-        <v>1.052371974347639</v>
+        <v>1.016536160036789</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036236667610283</v>
+        <v>1.045699771431294</v>
       </c>
       <c r="J16">
-        <v>1.041586778353697</v>
+        <v>1.019397336973464</v>
       </c>
       <c r="K16">
-        <v>1.04536690959687</v>
+        <v>1.029030320963549</v>
       </c>
       <c r="L16">
-        <v>1.046965370169449</v>
+        <v>1.022709776293914</v>
       </c>
       <c r="M16">
-        <v>1.055752137148386</v>
+        <v>1.030577312194407</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035646058880332</v>
+        <v>0.9928810694347745</v>
       </c>
       <c r="D17">
-        <v>1.04224024230194</v>
+        <v>1.016445869851753</v>
       </c>
       <c r="E17">
-        <v>1.043886390449609</v>
+        <v>1.010145958715653</v>
       </c>
       <c r="F17">
-        <v>1.052723708993159</v>
+        <v>1.018259961979825</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036309905216252</v>
+        <v>1.046281976693342</v>
       </c>
       <c r="J17">
-        <v>1.041830038459856</v>
+        <v>1.020615593449308</v>
       </c>
       <c r="K17">
-        <v>1.045584478535729</v>
+        <v>1.030171559688349</v>
       </c>
       <c r="L17">
-        <v>1.047224974985123</v>
+        <v>1.023978400811341</v>
       </c>
       <c r="M17">
-        <v>1.056032284471853</v>
+        <v>1.031955227640393</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03586832613219</v>
+        <v>0.9940298427187976</v>
       </c>
       <c r="D18">
-        <v>1.042409252409722</v>
+        <v>1.017304788091441</v>
       </c>
       <c r="E18">
-        <v>1.04408001366769</v>
+        <v>1.01108241228656</v>
       </c>
       <c r="F18">
-        <v>1.052928933684777</v>
+        <v>1.01925817188526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036352413544381</v>
+        <v>1.046617249218666</v>
       </c>
       <c r="J18">
-        <v>1.041971896719846</v>
+        <v>1.021320308334498</v>
       </c>
       <c r="K18">
-        <v>1.045711294675646</v>
+        <v>1.030831357301917</v>
       </c>
       <c r="L18">
-        <v>1.047376397645897</v>
+        <v>1.024712552078701</v>
       </c>
       <c r="M18">
-        <v>1.056195678099088</v>
+        <v>1.032752562719207</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035944120290729</v>
+        <v>0.9944200028184093</v>
       </c>
       <c r="D19">
-        <v>1.04246687897006</v>
+        <v>1.017596548395927</v>
       </c>
       <c r="E19">
-        <v>1.044146047070064</v>
+        <v>1.011400605912371</v>
       </c>
       <c r="F19">
-        <v>1.052998920786525</v>
+        <v>1.01959732276794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0363668721587</v>
+        <v>1.046730843119058</v>
       </c>
       <c r="J19">
-        <v>1.042020261393814</v>
+        <v>1.021559615082533</v>
       </c>
       <c r="K19">
-        <v>1.045754520720961</v>
+        <v>1.031055348387411</v>
       </c>
       <c r="L19">
-        <v>1.047428028755885</v>
+        <v>1.024961905679242</v>
       </c>
       <c r="M19">
-        <v>1.056251389107502</v>
+        <v>1.033023365832424</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035605177709412</v>
+        <v>0.9926690237324085</v>
       </c>
       <c r="D20">
-        <v>1.042209153452461</v>
+        <v>1.016287348587082</v>
       </c>
       <c r="E20">
-        <v>1.04385078104142</v>
+        <v>1.009973173084699</v>
       </c>
       <c r="F20">
-        <v>1.052685964583299</v>
+        <v>1.018075768941547</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036302069223453</v>
+        <v>1.046219959890678</v>
       </c>
       <c r="J20">
-        <v>1.041803942177913</v>
+        <v>1.020485496801899</v>
       </c>
       <c r="K20">
-        <v>1.045561144557123</v>
+        <v>1.030049725461563</v>
       </c>
       <c r="L20">
-        <v>1.047197121883161</v>
+        <v>1.023842894206959</v>
       </c>
       <c r="M20">
-        <v>1.056002228503619</v>
+        <v>1.031808053723845</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034503714947546</v>
+        <v>0.9868660774217595</v>
       </c>
       <c r="D21">
-        <v>1.041371163482926</v>
+        <v>1.011952014724782</v>
       </c>
       <c r="E21">
-        <v>1.042891741216017</v>
+        <v>1.005252960785008</v>
       </c>
       <c r="F21">
-        <v>1.051669266821289</v>
+        <v>1.013042439369699</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03608892272178</v>
+        <v>1.044507741023304</v>
       </c>
       <c r="J21">
-        <v>1.041100302280277</v>
+        <v>1.016923374299922</v>
       </c>
       <c r="K21">
-        <v>1.044931426292539</v>
+        <v>1.026710436099836</v>
       </c>
       <c r="L21">
-        <v>1.04644641842866</v>
+        <v>1.020135492959208</v>
       </c>
       <c r="M21">
-        <v>1.055192049862816</v>
+        <v>1.027780861143681</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033811547500661</v>
+        <v>0.9831286284193753</v>
       </c>
       <c r="D22">
-        <v>1.040844216641193</v>
+        <v>1.009162977691123</v>
       </c>
       <c r="E22">
-        <v>1.042289450064876</v>
+        <v>1.002221313334947</v>
       </c>
       <c r="F22">
-        <v>1.051030612656967</v>
+        <v>1.009808233177711</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035953022230506</v>
+        <v>1.043390622252751</v>
       </c>
       <c r="J22">
-        <v>1.040657620605641</v>
+        <v>1.014627608006666</v>
       </c>
       <c r="K22">
-        <v>1.044534710338412</v>
+        <v>1.024555073732173</v>
       </c>
       <c r="L22">
-        <v>1.04597442427713</v>
+        <v>1.017748893637706</v>
       </c>
       <c r="M22">
-        <v>1.054682561882387</v>
+        <v>1.025187859373025</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03417844362686</v>
+        <v>0.9851186384731978</v>
       </c>
       <c r="D23">
-        <v>1.041123567254314</v>
+        <v>1.010647673457295</v>
       </c>
       <c r="E23">
-        <v>1.042608669679067</v>
+        <v>1.003834696886449</v>
       </c>
       <c r="F23">
-        <v>1.05136911951019</v>
+        <v>1.011529551744074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036025244288312</v>
+        <v>1.043986759326522</v>
       </c>
       <c r="J23">
-        <v>1.040892320339576</v>
+        <v>1.015850118545488</v>
       </c>
       <c r="K23">
-        <v>1.044745091241384</v>
+        <v>1.025703112535579</v>
       </c>
       <c r="L23">
-        <v>1.046224636701035</v>
+        <v>1.019019508581476</v>
       </c>
       <c r="M23">
-        <v>1.054952659876683</v>
+        <v>1.026568411066234</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035623650027111</v>
+        <v>0.9927648665275827</v>
       </c>
       <c r="D24">
-        <v>1.042223201192373</v>
+        <v>1.016358997956784</v>
       </c>
       <c r="E24">
-        <v>1.043866871164812</v>
+        <v>1.01005126800595</v>
       </c>
       <c r="F24">
-        <v>1.052703019460326</v>
+        <v>1.01815902022234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036305610619986</v>
+        <v>1.04624799594047</v>
       </c>
       <c r="J24">
-        <v>1.041815734061015</v>
+        <v>1.020544299994378</v>
       </c>
       <c r="K24">
-        <v>1.045571688450066</v>
+        <v>1.03010479520623</v>
       </c>
       <c r="L24">
-        <v>1.047209707502433</v>
+        <v>1.023904141748228</v>
       </c>
       <c r="M24">
-        <v>1.056015809537741</v>
+        <v>1.031874574960703</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03730229971511</v>
+        <v>1.001278177916242</v>
       </c>
       <c r="D25">
-        <v>1.043498918422168</v>
+        <v>1.022728352362133</v>
       </c>
       <c r="E25">
-        <v>1.045329929011062</v>
+        <v>1.017005780679872</v>
       </c>
       <c r="F25">
-        <v>1.05425343493183</v>
+        <v>1.02556937085159</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036622722686599</v>
+        <v>1.048703367693746</v>
       </c>
       <c r="J25">
-        <v>1.042886075342691</v>
+        <v>1.025762602710616</v>
       </c>
       <c r="K25">
-        <v>1.04652744715261</v>
+        <v>1.034983795733233</v>
       </c>
       <c r="L25">
-        <v>1.048352806574322</v>
+        <v>1.029345717446793</v>
       </c>
       <c r="M25">
-        <v>1.057249077680434</v>
+        <v>1.037783311053059</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007805545434412</v>
+        <v>1.010344077682314</v>
       </c>
       <c r="D2">
-        <v>1.027617235913632</v>
+        <v>1.030520783903539</v>
       </c>
       <c r="E2">
-        <v>1.022362011217097</v>
+        <v>1.025206588066936</v>
       </c>
       <c r="F2">
-        <v>1.031271845195545</v>
+        <v>1.035798754781191</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05053373017566</v>
+        <v>1.047259917521042</v>
       </c>
       <c r="J2">
-        <v>1.029755274317621</v>
+        <v>1.032219740450176</v>
       </c>
       <c r="K2">
-        <v>1.038704773138414</v>
+        <v>1.041570680968433</v>
       </c>
       <c r="L2">
-        <v>1.033518356212155</v>
+        <v>1.036325578684986</v>
       </c>
       <c r="M2">
-        <v>1.042312049034382</v>
+        <v>1.046780906111921</v>
       </c>
       <c r="N2">
         <v>1.005712725503999</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045596322035376</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040464354252673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012404790717003</v>
+        <v>1.014115993380023</v>
       </c>
       <c r="D3">
-        <v>1.031063724954063</v>
+        <v>1.032997173862124</v>
       </c>
       <c r="E3">
-        <v>1.026148903665484</v>
+        <v>1.02811392948403</v>
       </c>
       <c r="F3">
-        <v>1.035300748487027</v>
+        <v>1.038535022117053</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051792057256412</v>
+        <v>1.04785600886102</v>
       </c>
       <c r="J3">
-        <v>1.032562907491628</v>
+        <v>1.034229101785245</v>
       </c>
       <c r="K3">
-        <v>1.041313988155933</v>
+        <v>1.043224564890109</v>
       </c>
       <c r="L3">
-        <v>1.036457789197795</v>
+        <v>1.038399293464792</v>
       </c>
       <c r="M3">
-        <v>1.045501026890027</v>
+        <v>1.048697484775987</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047113153355434</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041631130149661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015319640658813</v>
+        <v>1.016516296048031</v>
       </c>
       <c r="D4">
-        <v>1.033248378918515</v>
+        <v>1.034576304758816</v>
       </c>
       <c r="E4">
-        <v>1.028554531542262</v>
+        <v>1.029970044771472</v>
       </c>
       <c r="F4">
-        <v>1.037858827211261</v>
+        <v>1.040282605910217</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052574656044944</v>
+        <v>1.048225651059244</v>
       </c>
       <c r="J4">
-        <v>1.034339423930574</v>
+        <v>1.035506745673502</v>
       </c>
       <c r="K4">
-        <v>1.042961425864905</v>
+        <v>1.044274592829413</v>
       </c>
       <c r="L4">
-        <v>1.038320123164427</v>
+        <v>1.039719728508899</v>
       </c>
       <c r="M4">
-        <v>1.047520831728771</v>
+        <v>1.049917999532651</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048079099564377</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042374478768599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016530916561553</v>
+        <v>1.01751929388171</v>
       </c>
       <c r="D5">
-        <v>1.034156251239234</v>
+        <v>1.035238779478517</v>
       </c>
       <c r="E5">
-        <v>1.029555501764425</v>
+        <v>1.030747532634895</v>
       </c>
       <c r="F5">
-        <v>1.038922923027855</v>
+        <v>1.041014901163599</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052896240281334</v>
+        <v>1.048379130994542</v>
       </c>
       <c r="J5">
-        <v>1.03507693580318</v>
+        <v>1.036041812408679</v>
       </c>
       <c r="K5">
-        <v>1.043644485713336</v>
+        <v>1.0447153036164</v>
       </c>
       <c r="L5">
-        <v>1.039093842535617</v>
+        <v>1.040272838415001</v>
       </c>
       <c r="M5">
-        <v>1.048359817663533</v>
+        <v>1.050429445744631</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048483870641119</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042693241047459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016733481250021</v>
+        <v>1.017691169382524</v>
       </c>
       <c r="D6">
-        <v>1.034308077153104</v>
+        <v>1.035354622419466</v>
       </c>
       <c r="E6">
-        <v>1.029722971843486</v>
+        <v>1.030881429239162</v>
       </c>
       <c r="F6">
-        <v>1.039100936384363</v>
+        <v>1.041141157037571</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052949804781752</v>
+        <v>1.048406976704264</v>
       </c>
       <c r="J6">
-        <v>1.035200228028756</v>
+        <v>1.036135262708908</v>
       </c>
       <c r="K6">
-        <v>1.043758623587487</v>
+        <v>1.044793899706119</v>
       </c>
       <c r="L6">
-        <v>1.039223221828907</v>
+        <v>1.04036907007549</v>
       </c>
       <c r="M6">
-        <v>1.048500101387351</v>
+        <v>1.050518625712089</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048554449832124</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042757527268274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015335880630207</v>
+        <v>1.016540534860142</v>
       </c>
       <c r="D7">
-        <v>1.033260551010987</v>
+        <v>1.03459840949519</v>
       </c>
       <c r="E7">
-        <v>1.028567946786489</v>
+        <v>1.02999040078824</v>
       </c>
       <c r="F7">
-        <v>1.037873089697561</v>
+        <v>1.040302120621555</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052578982031992</v>
+        <v>1.048233897386697</v>
       </c>
       <c r="J7">
-        <v>1.034349314908045</v>
+        <v>1.035524451760568</v>
       </c>
       <c r="K7">
-        <v>1.042970590016588</v>
+        <v>1.044293584789996</v>
       </c>
       <c r="L7">
-        <v>1.038330497435595</v>
+        <v>1.039736971527391</v>
       </c>
       <c r="M7">
-        <v>1.047532081735009</v>
+        <v>1.049934454034249</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048092122063973</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042407948348631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009372867161311</v>
+        <v>1.01164092119851</v>
       </c>
       <c r="D8">
-        <v>1.028791606058185</v>
+        <v>1.031379058308354</v>
       </c>
       <c r="E8">
-        <v>1.023651293995827</v>
+        <v>1.026206938993714</v>
       </c>
       <c r="F8">
-        <v>1.03264379245321</v>
+        <v>1.036740466153947</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050965628532743</v>
+        <v>1.047472452596218</v>
       </c>
       <c r="J8">
-        <v>1.030712632557597</v>
+        <v>1.032916750889856</v>
       </c>
       <c r="K8">
-        <v>1.039595203855125</v>
+        <v>1.042150115673809</v>
       </c>
       <c r="L8">
-        <v>1.034520147322377</v>
+        <v>1.037043246739302</v>
       </c>
       <c r="M8">
-        <v>1.04339901817378</v>
+        <v>1.047444740891146</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046121698886036</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040896902102986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9983721671175538</v>
+        <v>1.002667086160139</v>
       </c>
       <c r="D9">
-        <v>1.02055314283125</v>
+        <v>1.025500749629562</v>
       </c>
       <c r="E9">
-        <v>1.014627915840004</v>
+        <v>1.019323886050603</v>
       </c>
       <c r="F9">
-        <v>1.023036410830444</v>
+        <v>1.030266186325808</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047873319244939</v>
+        <v>1.045995674438005</v>
       </c>
       <c r="J9">
-        <v>1.023982539604234</v>
+        <v>1.028126013006637</v>
       </c>
       <c r="K9">
-        <v>1.033321334107651</v>
+        <v>1.038193212955721</v>
       </c>
       <c r="L9">
-        <v>1.027488041125547</v>
+        <v>1.032111037891216</v>
       </c>
       <c r="M9">
-        <v>1.035766476473046</v>
+        <v>1.042886585456145</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04251424344105</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038095953458209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9906701180597298</v>
+        <v>0.99651414018316</v>
       </c>
       <c r="D10">
-        <v>1.014793350473969</v>
+        <v>1.021511819402546</v>
       </c>
       <c r="E10">
-        <v>1.008345419528964</v>
+        <v>1.01466424036928</v>
       </c>
       <c r="F10">
-        <v>1.016340358579936</v>
+        <v>1.02592034015242</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045633386930078</v>
+        <v>1.04495293894152</v>
       </c>
       <c r="J10">
-        <v>1.019258857125389</v>
+        <v>1.024866747312269</v>
       </c>
       <c r="K10">
-        <v>1.028900546458488</v>
+        <v>1.035503238242403</v>
       </c>
       <c r="L10">
-        <v>1.022565612127047</v>
+        <v>1.028773680701522</v>
       </c>
       <c r="M10">
-        <v>1.030420719982007</v>
+        <v>1.03983685154395</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040151920360366</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036210764940483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9872387900241577</v>
+        <v>0.9943143549581389</v>
       </c>
       <c r="D11">
-        <v>1.012230291368849</v>
+        <v>1.020245074907767</v>
       </c>
       <c r="E11">
-        <v>1.00555565040349</v>
+        <v>1.013200794359355</v>
       </c>
       <c r="F11">
-        <v>1.013365292083172</v>
+        <v>1.024819136077861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044618551550496</v>
+        <v>1.044707387822582</v>
       </c>
       <c r="J11">
-        <v>1.017152258202227</v>
+        <v>1.023925591322173</v>
       </c>
       <c r="K11">
-        <v>1.026925190098144</v>
+        <v>1.034795037949493</v>
       </c>
       <c r="L11">
-        <v>1.020373550347545</v>
+        <v>1.027877984153334</v>
       </c>
       <c r="M11">
-        <v>1.028039484634024</v>
+        <v>1.039287701777424</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040152698046046</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035742847092166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9859489534486725</v>
+        <v>0.9936844950609104</v>
       </c>
       <c r="D12">
-        <v>1.011267374842647</v>
+        <v>1.019950894519762</v>
       </c>
       <c r="E12">
-        <v>1.004508420578626</v>
+        <v>1.012871369246874</v>
       </c>
       <c r="F12">
-        <v>1.012248255347871</v>
+        <v>1.024705570378081</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044234605638503</v>
+        <v>1.044697026127086</v>
       </c>
       <c r="J12">
-        <v>1.01636011751577</v>
+        <v>1.023758564430989</v>
       </c>
       <c r="K12">
-        <v>1.026181847198031</v>
+        <v>1.034705594993538</v>
       </c>
       <c r="L12">
-        <v>1.019549753097121</v>
+        <v>1.027756060028072</v>
       </c>
       <c r="M12">
-        <v>1.027144500945419</v>
+        <v>1.039374278264362</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040546970624897</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035679608155291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9862263334662771</v>
+        <v>0.994235943442601</v>
       </c>
       <c r="D13">
-        <v>1.011474424744327</v>
+        <v>1.020402849343638</v>
       </c>
       <c r="E13">
-        <v>1.004733561419664</v>
+        <v>1.013406828156727</v>
       </c>
       <c r="F13">
-        <v>1.012488415059553</v>
+        <v>1.025365324058018</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044317283742786</v>
+        <v>1.044879490713404</v>
       </c>
       <c r="J13">
-        <v>1.016530479071417</v>
+        <v>1.02419274630885</v>
       </c>
       <c r="K13">
-        <v>1.026341738672587</v>
+        <v>1.035106572899904</v>
       </c>
       <c r="L13">
-        <v>1.019726901123741</v>
+        <v>1.028238417226115</v>
       </c>
       <c r="M13">
-        <v>1.027336960911248</v>
+        <v>1.039979722720533</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04130187014223</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035960622344596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9871324885761181</v>
+        <v>0.9951583372978863</v>
       </c>
       <c r="D14">
-        <v>1.012150921462331</v>
+        <v>1.021058969358457</v>
       </c>
       <c r="E14">
-        <v>1.005469313517955</v>
+        <v>1.014174202597899</v>
       </c>
       <c r="F14">
-        <v>1.013273205177451</v>
+        <v>1.026178409241007</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044586958524767</v>
+        <v>1.045095023796516</v>
       </c>
       <c r="J14">
-        <v>1.017086979357195</v>
+        <v>1.024769875623918</v>
       </c>
       <c r="K14">
-        <v>1.02686394369081</v>
+        <v>1.035610842570431</v>
       </c>
       <c r="L14">
-        <v>1.020305652969923</v>
+        <v>1.028850299783503</v>
       </c>
       <c r="M14">
-        <v>1.027965721932483</v>
+        <v>1.040639312014872</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041996295545233</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036318579465173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9876887491713856</v>
+        <v>0.9956452132153109</v>
       </c>
       <c r="D15">
-        <v>1.012566275534038</v>
+        <v>1.021388305332386</v>
       </c>
       <c r="E15">
-        <v>1.005921161672633</v>
+        <v>1.014556948244123</v>
       </c>
       <c r="F15">
-        <v>1.013755136151789</v>
+        <v>1.026556985653689</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044752180215756</v>
+        <v>1.045192805719031</v>
       </c>
       <c r="J15">
-        <v>1.0174285637427</v>
+        <v>1.025048092353143</v>
       </c>
       <c r="K15">
-        <v>1.027184405154335</v>
+        <v>1.035848083173075</v>
       </c>
       <c r="L15">
-        <v>1.020660958919757</v>
+        <v>1.02913903331261</v>
       </c>
       <c r="M15">
-        <v>1.028351717265792</v>
+        <v>1.040925625977726</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042260074421733</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036492178112415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9908957464459343</v>
+        <v>0.9981443898167448</v>
       </c>
       <c r="D16">
-        <v>1.014961955021419</v>
+        <v>1.022993997885073</v>
       </c>
       <c r="E16">
-        <v>1.008529058248296</v>
+        <v>1.016429079037056</v>
       </c>
       <c r="F16">
-        <v>1.016536160036789</v>
+        <v>1.02829268347478</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045699771431294</v>
+        <v>1.04561484451297</v>
       </c>
       <c r="J16">
-        <v>1.019397336973464</v>
+        <v>1.026354802283867</v>
       </c>
       <c r="K16">
-        <v>1.029030320963549</v>
+        <v>1.036924642861942</v>
       </c>
       <c r="L16">
-        <v>1.022709776293914</v>
+        <v>1.030472078882311</v>
       </c>
       <c r="M16">
-        <v>1.030577312194407</v>
+        <v>1.042133992996624</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043176517117113</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037256502894579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9928810694347745</v>
+        <v>0.999579823049863</v>
       </c>
       <c r="D17">
-        <v>1.016445869851753</v>
+        <v>1.023883163112585</v>
       </c>
       <c r="E17">
-        <v>1.010145958715653</v>
+        <v>1.017464454076083</v>
       </c>
       <c r="F17">
-        <v>1.018259961979825</v>
+        <v>1.029195320368244</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046281976693342</v>
+        <v>1.045823088972</v>
       </c>
       <c r="J17">
-        <v>1.020615593449308</v>
+        <v>1.027054157619615</v>
       </c>
       <c r="K17">
-        <v>1.030171559688349</v>
+        <v>1.037485003386347</v>
       </c>
       <c r="L17">
-        <v>1.023978400811341</v>
+        <v>1.031173043998925</v>
       </c>
       <c r="M17">
-        <v>1.031955227640393</v>
+        <v>1.042710107814665</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043503106802104</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037655280727662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9940298427187976</v>
+        <v>1.000222174943118</v>
       </c>
       <c r="D18">
-        <v>1.017304788091441</v>
+        <v>1.024218700516939</v>
       </c>
       <c r="E18">
-        <v>1.01108241228656</v>
+        <v>1.01785350950931</v>
       </c>
       <c r="F18">
-        <v>1.01925817188526</v>
+        <v>1.029427738176711</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046617249218666</v>
+        <v>1.04585925631129</v>
       </c>
       <c r="J18">
-        <v>1.021320308334498</v>
+        <v>1.027276791403194</v>
       </c>
       <c r="K18">
-        <v>1.030831357301917</v>
+        <v>1.03763208427622</v>
       </c>
       <c r="L18">
-        <v>1.024712552078701</v>
+        <v>1.03137102350218</v>
       </c>
       <c r="M18">
-        <v>1.032752562719207</v>
+        <v>1.04275713428989</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043303117245806</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037747657193183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9944200028184093</v>
+        <v>1.000165676880783</v>
       </c>
       <c r="D19">
-        <v>1.017596548395927</v>
+        <v>1.024076227191903</v>
       </c>
       <c r="E19">
-        <v>1.011400605912371</v>
+        <v>1.017673074285578</v>
       </c>
       <c r="F19">
-        <v>1.01959732276794</v>
+        <v>1.029067406456841</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046730843119058</v>
+        <v>1.045753172419906</v>
       </c>
       <c r="J19">
-        <v>1.021559615082533</v>
+        <v>1.027087835962874</v>
       </c>
       <c r="K19">
-        <v>1.031055348387411</v>
+        <v>1.037429536621137</v>
       </c>
       <c r="L19">
-        <v>1.024961905679242</v>
+        <v>1.031130618339447</v>
       </c>
       <c r="M19">
-        <v>1.033023365832424</v>
+        <v>1.042340619384595</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042649077021072</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037610833670986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9926690237324085</v>
+        <v>0.9981373040435919</v>
       </c>
       <c r="D20">
-        <v>1.016287348587082</v>
+        <v>1.022578501578448</v>
       </c>
       <c r="E20">
-        <v>1.009973173084699</v>
+        <v>1.015896513544945</v>
       </c>
       <c r="F20">
-        <v>1.018075768941547</v>
+        <v>1.027071659797453</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046219959890678</v>
+        <v>1.04524333677129</v>
       </c>
       <c r="J20">
-        <v>1.020485496801899</v>
+        <v>1.025740218812522</v>
       </c>
       <c r="K20">
-        <v>1.030049725461563</v>
+        <v>1.036235623223994</v>
       </c>
       <c r="L20">
-        <v>1.023842894206959</v>
+        <v>1.029665484837561</v>
       </c>
       <c r="M20">
-        <v>1.031808053723845</v>
+        <v>1.040654622922069</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040788571098693</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036770610634516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9868660774217595</v>
+        <v>0.9934226199104923</v>
       </c>
       <c r="D21">
-        <v>1.011952014724782</v>
+        <v>1.019498721621139</v>
       </c>
       <c r="E21">
-        <v>1.005252960785008</v>
+        <v>1.012301287961668</v>
       </c>
       <c r="F21">
-        <v>1.013042439369699</v>
+        <v>1.02366863521771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044507741023304</v>
+        <v>1.044400651983538</v>
       </c>
       <c r="J21">
-        <v>1.016923374299922</v>
+        <v>1.02319793613596</v>
       </c>
       <c r="K21">
-        <v>1.026710436099836</v>
+        <v>1.034119867279159</v>
       </c>
       <c r="L21">
-        <v>1.020135492959208</v>
+        <v>1.027053297168084</v>
       </c>
       <c r="M21">
-        <v>1.027780861143681</v>
+        <v>1.038215056551915</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038817042369025</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.035277921773795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9831286284193753</v>
+        <v>0.9904220911869877</v>
       </c>
       <c r="D22">
-        <v>1.009162977691123</v>
+        <v>1.01754730743112</v>
       </c>
       <c r="E22">
-        <v>1.002221313334947</v>
+        <v>1.010031635566151</v>
       </c>
       <c r="F22">
-        <v>1.009808233177711</v>
+        <v>1.021537688207462</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043390622252751</v>
+        <v>1.043858639756002</v>
       </c>
       <c r="J22">
-        <v>1.014627608006666</v>
+        <v>1.021588501417615</v>
       </c>
       <c r="K22">
-        <v>1.024555073732173</v>
+        <v>1.032778983358845</v>
       </c>
       <c r="L22">
-        <v>1.017748893637706</v>
+        <v>1.025406949276323</v>
       </c>
       <c r="M22">
-        <v>1.025187859373025</v>
+        <v>1.036694222342244</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037613400229454</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034316362551841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9851186384731978</v>
+        <v>0.9920077591054837</v>
       </c>
       <c r="D23">
-        <v>1.010647673457295</v>
+        <v>1.018572582178179</v>
       </c>
       <c r="E23">
-        <v>1.003834696886449</v>
+        <v>1.011228560975725</v>
       </c>
       <c r="F23">
-        <v>1.011529551744074</v>
+        <v>1.02266123522432</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043986759326522</v>
+        <v>1.044142002158402</v>
       </c>
       <c r="J23">
-        <v>1.015850118545488</v>
+        <v>1.022434636002066</v>
       </c>
       <c r="K23">
-        <v>1.025703112535579</v>
+        <v>1.033480371569403</v>
       </c>
       <c r="L23">
-        <v>1.019019508581476</v>
+        <v>1.026273074830492</v>
       </c>
       <c r="M23">
-        <v>1.026568411066234</v>
+        <v>1.037494013357554</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03824638346129</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034802642108398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9927648665275827</v>
+        <v>0.9981490612363667</v>
       </c>
       <c r="D24">
-        <v>1.016358997956784</v>
+        <v>1.022563332523965</v>
       </c>
       <c r="E24">
-        <v>1.01005126800595</v>
+        <v>1.015884093757642</v>
       </c>
       <c r="F24">
-        <v>1.01815902022234</v>
+        <v>1.027033699580586</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04624799594047</v>
+        <v>1.045226452863556</v>
       </c>
       <c r="J24">
-        <v>1.020544299994378</v>
+        <v>1.025718548173279</v>
       </c>
       <c r="K24">
-        <v>1.03010479520623</v>
+        <v>1.036205467609725</v>
       </c>
       <c r="L24">
-        <v>1.023904141748228</v>
+        <v>1.029637893008724</v>
       </c>
       <c r="M24">
-        <v>1.031874574960703</v>
+        <v>1.040602141850111</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040706262272361</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036721917122962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001278177916242</v>
+        <v>1.005044754665567</v>
       </c>
       <c r="D25">
-        <v>1.022728352362133</v>
+        <v>1.027064158831601</v>
       </c>
       <c r="E25">
-        <v>1.017005780679872</v>
+        <v>1.02114427090821</v>
       </c>
       <c r="F25">
-        <v>1.02556937085159</v>
+        <v>1.031978114234165</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048703367693746</v>
+        <v>1.046402488906584</v>
       </c>
       <c r="J25">
-        <v>1.025762602710616</v>
+        <v>1.02940352730349</v>
       </c>
       <c r="K25">
-        <v>1.034983795733233</v>
+        <v>1.039256379218165</v>
       </c>
       <c r="L25">
-        <v>1.029345717446793</v>
+        <v>1.033422982760665</v>
       </c>
       <c r="M25">
-        <v>1.037783311053059</v>
+        <v>1.044099494476176</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04347417630074</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03887620312417</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010344077682314</v>
+        <v>1.009458699259982</v>
       </c>
       <c r="D2">
-        <v>1.030520783903539</v>
+        <v>1.029287861352786</v>
       </c>
       <c r="E2">
-        <v>1.025206588066936</v>
+        <v>1.02442358203011</v>
       </c>
       <c r="F2">
-        <v>1.035798754781191</v>
+        <v>1.034941362225205</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047259917521042</v>
+        <v>1.04676997703106</v>
       </c>
       <c r="J2">
-        <v>1.032219740450176</v>
+        <v>1.031360136465728</v>
       </c>
       <c r="K2">
-        <v>1.041570680968433</v>
+        <v>1.040353708948457</v>
       </c>
       <c r="L2">
-        <v>1.036325578684986</v>
+        <v>1.035552828984096</v>
       </c>
       <c r="M2">
-        <v>1.046780906111921</v>
+        <v>1.045934459932053</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045596322035376</v>
+        <v>1.044926421023583</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040464354252673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039612607074052</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02273881081683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014115993380023</v>
+        <v>1.013115513872103</v>
       </c>
       <c r="D3">
-        <v>1.032997173862124</v>
+        <v>1.031609718133153</v>
       </c>
       <c r="E3">
-        <v>1.02811392948403</v>
+        <v>1.027225741269117</v>
       </c>
       <c r="F3">
-        <v>1.038535022117053</v>
+        <v>1.037568551749073</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04785600886102</v>
+        <v>1.047299164259684</v>
       </c>
       <c r="J3">
-        <v>1.034229101785245</v>
+        <v>1.033254912033616</v>
       </c>
       <c r="K3">
-        <v>1.043224564890109</v>
+        <v>1.041853511622893</v>
       </c>
       <c r="L3">
-        <v>1.038399293464792</v>
+        <v>1.037521723126261</v>
       </c>
       <c r="M3">
-        <v>1.048697484775987</v>
+        <v>1.047742284014866</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047113153355434</v>
+        <v>1.046357182463139</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041631130149661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04067015810104</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023043816404821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016516296048031</v>
+        <v>1.015443436430085</v>
       </c>
       <c r="D4">
-        <v>1.034576304758816</v>
+        <v>1.033091111471965</v>
       </c>
       <c r="E4">
-        <v>1.029970044771472</v>
+        <v>1.029015621005076</v>
       </c>
       <c r="F4">
-        <v>1.040282605910217</v>
+        <v>1.039247307703314</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048225651059244</v>
+        <v>1.047626457970566</v>
       </c>
       <c r="J4">
-        <v>1.035506745673502</v>
+        <v>1.034460180776873</v>
       </c>
       <c r="K4">
-        <v>1.044274592829413</v>
+        <v>1.042805909416725</v>
       </c>
       <c r="L4">
-        <v>1.039719728508899</v>
+        <v>1.038776024871251</v>
       </c>
       <c r="M4">
-        <v>1.049917999532651</v>
+        <v>1.048894049308904</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048079099564377</v>
+        <v>1.047268719577315</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042374478768599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041344556594746</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023235156402156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01751929388171</v>
+        <v>1.016416423115762</v>
       </c>
       <c r="D5">
-        <v>1.035238779478517</v>
+        <v>1.03371296036888</v>
       </c>
       <c r="E5">
-        <v>1.030747532634895</v>
+        <v>1.029765624497381</v>
       </c>
       <c r="F5">
-        <v>1.041014901163599</v>
+        <v>1.039951018864459</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048379130994542</v>
+        <v>1.047762315621646</v>
       </c>
       <c r="J5">
-        <v>1.036041812408679</v>
+        <v>1.034965168638703</v>
       </c>
       <c r="K5">
-        <v>1.0447153036164</v>
+        <v>1.043205998859823</v>
       </c>
       <c r="L5">
-        <v>1.040272838415001</v>
+        <v>1.039301664862653</v>
       </c>
       <c r="M5">
-        <v>1.050429445744631</v>
+        <v>1.049376915877799</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048483870641119</v>
+        <v>1.047650872447672</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042693241047459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041635308048896</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023315413872173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017691169382524</v>
+        <v>1.016583209279149</v>
       </c>
       <c r="D6">
-        <v>1.035354622419466</v>
+        <v>1.03382193931395</v>
       </c>
       <c r="E6">
-        <v>1.030881429239162</v>
+        <v>1.029894856850219</v>
       </c>
       <c r="F6">
-        <v>1.041141157037571</v>
+        <v>1.040072433063619</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048406976704264</v>
+        <v>1.047787168284771</v>
       </c>
       <c r="J6">
-        <v>1.036135262708908</v>
+        <v>1.035053515832186</v>
       </c>
       <c r="K6">
-        <v>1.044793899706119</v>
+        <v>1.04327772997112</v>
       </c>
       <c r="L6">
-        <v>1.04036907007549</v>
+        <v>1.039393233765695</v>
       </c>
       <c r="M6">
-        <v>1.050518625712089</v>
+        <v>1.049461253880792</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048554449832124</v>
+        <v>1.047717619665676</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042757527268274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041695609792572</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023330314217526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016540534860142</v>
+        <v>1.015467052376226</v>
       </c>
       <c r="D7">
-        <v>1.03459840949519</v>
+        <v>1.033112466624585</v>
       </c>
       <c r="E7">
-        <v>1.02999040078824</v>
+        <v>1.029035399916928</v>
       </c>
       <c r="F7">
-        <v>1.040302120621555</v>
+        <v>1.039266254163313</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048233897386697</v>
+        <v>1.047634335888955</v>
       </c>
       <c r="J7">
-        <v>1.035524451760568</v>
+        <v>1.034477268008237</v>
       </c>
       <c r="K7">
-        <v>1.044293584789996</v>
+        <v>1.042824153770294</v>
       </c>
       <c r="L7">
-        <v>1.039736971527391</v>
+        <v>1.038792693175027</v>
       </c>
       <c r="M7">
-        <v>1.049934454034249</v>
+        <v>1.048909937496148</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048092122063973</v>
+        <v>1.0472812938955</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042407948348631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041379498453739</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023240288253028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01164092119851</v>
+        <v>1.010715871402971</v>
       </c>
       <c r="D8">
-        <v>1.031379058308354</v>
+        <v>1.030093132646374</v>
       </c>
       <c r="E8">
-        <v>1.026206938993714</v>
+        <v>1.025387691660513</v>
       </c>
       <c r="F8">
-        <v>1.036740466153947</v>
+        <v>1.035845566363715</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047472452596218</v>
+        <v>1.046959508437254</v>
       </c>
       <c r="J8">
-        <v>1.032916750889856</v>
+        <v>1.032017730594214</v>
       </c>
       <c r="K8">
-        <v>1.042150115673809</v>
+        <v>1.040880336640254</v>
       </c>
       <c r="L8">
-        <v>1.037043246739302</v>
+        <v>1.036234410276797</v>
       </c>
       <c r="M8">
-        <v>1.047444740891146</v>
+        <v>1.046560928268073</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046121698886036</v>
+        <v>1.045422225519978</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040896902102986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040010086171073</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022848211673812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002667086160139</v>
+        <v>1.002021137633761</v>
       </c>
       <c r="D9">
-        <v>1.025500749629562</v>
+        <v>1.024585819880751</v>
       </c>
       <c r="E9">
-        <v>1.019323886050603</v>
+        <v>1.018758997049254</v>
       </c>
       <c r="F9">
-        <v>1.030266186325808</v>
+        <v>1.029634210258058</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045995674438005</v>
+        <v>1.045643163700217</v>
       </c>
       <c r="J9">
-        <v>1.028126013006637</v>
+        <v>1.027502725646027</v>
       </c>
       <c r="K9">
-        <v>1.038193212955721</v>
+        <v>1.037292216819097</v>
       </c>
       <c r="L9">
-        <v>1.032111037891216</v>
+        <v>1.031554881569094</v>
       </c>
       <c r="M9">
-        <v>1.042886585456145</v>
+        <v>1.042264117447711</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04251424344105</v>
+        <v>1.042021602952049</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038095953458209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037469612795466</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022103729032944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.99651414018316</v>
+        <v>0.9960619158742541</v>
       </c>
       <c r="D10">
-        <v>1.021511819402546</v>
+        <v>1.020851572020703</v>
       </c>
       <c r="E10">
-        <v>1.01466424036928</v>
+        <v>1.014274913506011</v>
       </c>
       <c r="F10">
-        <v>1.02592034015242</v>
+        <v>1.025469584637381</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04495293894152</v>
+        <v>1.044709892012331</v>
       </c>
       <c r="J10">
-        <v>1.024866747312269</v>
+        <v>1.024432655288216</v>
       </c>
       <c r="K10">
-        <v>1.035503238242403</v>
+        <v>1.03485428143824</v>
       </c>
       <c r="L10">
-        <v>1.028773680701522</v>
+        <v>1.028391126066219</v>
       </c>
       <c r="M10">
-        <v>1.03983685154395</v>
+        <v>1.039393716904433</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040151920360366</v>
+        <v>1.039801230533664</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036210764940483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035764316008075</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021591451171702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9943143549581389</v>
+        <v>0.9939049638624352</v>
       </c>
       <c r="D11">
-        <v>1.020245074907767</v>
+        <v>1.019648518097636</v>
       </c>
       <c r="E11">
-        <v>1.013200794359355</v>
+        <v>1.012848815467255</v>
       </c>
       <c r="F11">
-        <v>1.024819136077861</v>
+        <v>1.024411279035817</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044707387822582</v>
+        <v>1.044488243979495</v>
       </c>
       <c r="J11">
-        <v>1.023925591322173</v>
+        <v>1.023533520260579</v>
       </c>
       <c r="K11">
-        <v>1.034795037949493</v>
+        <v>1.034209167048712</v>
       </c>
       <c r="L11">
-        <v>1.027877984153334</v>
+        <v>1.027532422775663</v>
       </c>
       <c r="M11">
-        <v>1.039287701777424</v>
+        <v>1.038887064432484</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040152698046046</v>
+        <v>1.039835798750648</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035742847092166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03534422646738</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021495983550175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9936844950609104</v>
+        <v>0.9932734550631576</v>
       </c>
       <c r="D12">
-        <v>1.019950894519762</v>
+        <v>1.019358403404919</v>
       </c>
       <c r="E12">
-        <v>1.012871369246874</v>
+        <v>1.012516789507416</v>
       </c>
       <c r="F12">
-        <v>1.024705570378081</v>
+        <v>1.024298612910263</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044697026127086</v>
+        <v>1.044476884257431</v>
       </c>
       <c r="J12">
-        <v>1.023758564430989</v>
+        <v>1.023365248021258</v>
       </c>
       <c r="K12">
-        <v>1.034705594993538</v>
+        <v>1.034123892769226</v>
       </c>
       <c r="L12">
-        <v>1.027756060028072</v>
+        <v>1.027408053222961</v>
       </c>
       <c r="M12">
-        <v>1.039374278264362</v>
+        <v>1.038974640388223</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040546970624897</v>
+        <v>1.040230968540646</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035679608155291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035283936112481</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021508639554305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.994235943442601</v>
+        <v>0.9937883605210065</v>
       </c>
       <c r="D13">
-        <v>1.020402849343638</v>
+        <v>1.019768191201569</v>
       </c>
       <c r="E13">
-        <v>1.013406828156727</v>
+        <v>1.013018327413736</v>
       </c>
       <c r="F13">
-        <v>1.025365324058018</v>
+        <v>1.024926581009617</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044879490713404</v>
+        <v>1.044638868333981</v>
       </c>
       <c r="J13">
-        <v>1.02419274630885</v>
+        <v>1.023764362527546</v>
       </c>
       <c r="K13">
-        <v>1.035106572899904</v>
+        <v>1.034483420211516</v>
       </c>
       <c r="L13">
-        <v>1.028238417226115</v>
+        <v>1.027857084533135</v>
       </c>
       <c r="M13">
-        <v>1.039979722720533</v>
+        <v>1.039548831804249</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04130187014223</v>
+        <v>1.040961240990181</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035960622344596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035535395334332</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021612353143396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9951583372978863</v>
+        <v>0.9946696665533874</v>
       </c>
       <c r="D14">
-        <v>1.021058969358457</v>
+        <v>1.020374067155252</v>
       </c>
       <c r="E14">
-        <v>1.014174202597899</v>
+        <v>1.013748048151081</v>
       </c>
       <c r="F14">
-        <v>1.026178409241007</v>
+        <v>1.025702832900709</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045095023796516</v>
+        <v>1.04483136099464</v>
       </c>
       <c r="J14">
-        <v>1.024769875623918</v>
+        <v>1.024301860921593</v>
       </c>
       <c r="K14">
-        <v>1.035610842570431</v>
+        <v>1.034938200736504</v>
       </c>
       <c r="L14">
-        <v>1.028850299783503</v>
+        <v>1.028431906742881</v>
       </c>
       <c r="M14">
-        <v>1.040639312014872</v>
+        <v>1.040172136858429</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041996295545233</v>
+        <v>1.04162703258903</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036318579465173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035858494766113</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021726607090832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9956452132153109</v>
+        <v>0.9951386877106598</v>
       </c>
       <c r="D15">
-        <v>1.021388305332386</v>
+        <v>1.020680753604614</v>
       </c>
       <c r="E15">
-        <v>1.014556948244123</v>
+        <v>1.014114565025376</v>
       </c>
       <c r="F15">
-        <v>1.026556985653689</v>
+        <v>1.026065078326327</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045192805719031</v>
+        <v>1.044919121177786</v>
       </c>
       <c r="J15">
-        <v>1.025048092353143</v>
+        <v>1.024562788377838</v>
       </c>
       <c r="K15">
-        <v>1.035848083173075</v>
+        <v>1.035153100670857</v>
       </c>
       <c r="L15">
-        <v>1.02913903331261</v>
+        <v>1.02870464430093</v>
       </c>
       <c r="M15">
-        <v>1.040925625977726</v>
+        <v>1.040442341051979</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042260074421733</v>
+        <v>1.041878088063173</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036492178112415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036016867565881</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021776469080222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9981443898167448</v>
+        <v>0.9975625754700681</v>
       </c>
       <c r="D16">
-        <v>1.022993997885073</v>
+        <v>1.022186279312266</v>
       </c>
       <c r="E16">
-        <v>1.016429079037056</v>
+        <v>1.015918921039116</v>
       </c>
       <c r="F16">
-        <v>1.02829268347478</v>
+        <v>1.027730053765505</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04561484451297</v>
+        <v>1.045298806664223</v>
       </c>
       <c r="J16">
-        <v>1.026354802283867</v>
+        <v>1.025796138256072</v>
       </c>
       <c r="K16">
-        <v>1.036924642861942</v>
+        <v>1.036130647405289</v>
       </c>
       <c r="L16">
-        <v>1.030472078882311</v>
+        <v>1.029970730602612</v>
       </c>
       <c r="M16">
-        <v>1.042133992996624</v>
+        <v>1.041580792831237</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043176517117113</v>
+        <v>1.042739257562652</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037256502894579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03671148361066</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021980388662775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.999579823049863</v>
+        <v>0.998961857665676</v>
       </c>
       <c r="D17">
-        <v>1.023883163112585</v>
+        <v>1.023025038222287</v>
       </c>
       <c r="E17">
-        <v>1.017464454076083</v>
+        <v>1.016922036745097</v>
       </c>
       <c r="F17">
-        <v>1.029195320368244</v>
+        <v>1.028597772316627</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045823088972</v>
+        <v>1.045486623665985</v>
       </c>
       <c r="J17">
-        <v>1.027054157619615</v>
+        <v>1.026459988691072</v>
       </c>
       <c r="K17">
-        <v>1.037485003386347</v>
+        <v>1.036641050149205</v>
       </c>
       <c r="L17">
-        <v>1.031173043998925</v>
+        <v>1.030639727231193</v>
       </c>
       <c r="M17">
-        <v>1.042710107814665</v>
+        <v>1.042122294392539</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043503106802104</v>
+        <v>1.043038442119406</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037655280727662</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037075186056122</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022075991415848</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000222174943118</v>
+        <v>0.9995992190766964</v>
       </c>
       <c r="D18">
-        <v>1.024218700516939</v>
+        <v>1.023349442697891</v>
       </c>
       <c r="E18">
-        <v>1.01785350950931</v>
+        <v>1.017307265943765</v>
       </c>
       <c r="F18">
-        <v>1.029427738176711</v>
+        <v>1.02882365621011</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04585925631129</v>
+        <v>1.045519954680013</v>
       </c>
       <c r="J18">
-        <v>1.027276791403194</v>
+        <v>1.026677375987325</v>
       </c>
       <c r="K18">
-        <v>1.03763208427622</v>
+        <v>1.036776948822968</v>
       </c>
       <c r="L18">
-        <v>1.03137102350218</v>
+        <v>1.030833794235489</v>
       </c>
       <c r="M18">
-        <v>1.04275713428989</v>
+        <v>1.042162736293454</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043303117245806</v>
+        <v>1.042833149880251</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037747657193183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037158518925764</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022081416580255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000165676880783</v>
+        <v>0.9995646411838961</v>
       </c>
       <c r="D19">
-        <v>1.024076227191903</v>
+        <v>1.023230184079288</v>
       </c>
       <c r="E19">
-        <v>1.017673074285578</v>
+        <v>1.017147554320082</v>
       </c>
       <c r="F19">
-        <v>1.029067406456841</v>
+        <v>1.028481479689963</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045753172419906</v>
+        <v>1.045426250947975</v>
       </c>
       <c r="J19">
-        <v>1.027087835962874</v>
+        <v>1.026509382457343</v>
       </c>
       <c r="K19">
-        <v>1.037429536621137</v>
+        <v>1.036597169911951</v>
       </c>
       <c r="L19">
-        <v>1.031130618339447</v>
+        <v>1.030613728067974</v>
       </c>
       <c r="M19">
-        <v>1.042340619384595</v>
+        <v>1.041764043714384</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042649077021072</v>
+        <v>1.042193052738121</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037610833670986</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037038420454416</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022013465214818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9981373040435919</v>
+        <v>0.9976333447836315</v>
       </c>
       <c r="D20">
-        <v>1.022578501578448</v>
+        <v>1.021850951120639</v>
       </c>
       <c r="E20">
-        <v>1.015896513544945</v>
+        <v>1.015460341725982</v>
       </c>
       <c r="F20">
-        <v>1.027071659797453</v>
+        <v>1.026572758370542</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04524333677129</v>
+        <v>1.044971191340558</v>
       </c>
       <c r="J20">
-        <v>1.025740218812522</v>
+        <v>1.02525580284673</v>
       </c>
       <c r="K20">
-        <v>1.036235623223994</v>
+        <v>1.035520159823542</v>
       </c>
       <c r="L20">
-        <v>1.029665484837561</v>
+        <v>1.0292366801209</v>
       </c>
       <c r="M20">
-        <v>1.040654622922069</v>
+        <v>1.040163914541358</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040788571098693</v>
+        <v>1.040400227531776</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036770610634516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036281246885316</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021736101786002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9934226199104923</v>
+        <v>0.9930742752573414</v>
       </c>
       <c r="D21">
-        <v>1.019498721621139</v>
+        <v>1.018972751767107</v>
       </c>
       <c r="E21">
-        <v>1.012301287961668</v>
+        <v>1.012005981315611</v>
       </c>
       <c r="F21">
-        <v>1.02366863521771</v>
+        <v>1.023314044725737</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044400651983538</v>
+        <v>1.044215647634266</v>
       </c>
       <c r="J21">
-        <v>1.02319793613596</v>
+        <v>1.022864439432184</v>
       </c>
       <c r="K21">
-        <v>1.034119867279159</v>
+        <v>1.033603379202897</v>
       </c>
       <c r="L21">
-        <v>1.027053297168084</v>
+        <v>1.026763411562868</v>
       </c>
       <c r="M21">
-        <v>1.038215056551915</v>
+        <v>1.037866789518666</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038817042369025</v>
+        <v>1.038541411664259</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035277921773795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03492957735587</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021320719076635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9904220911869877</v>
+        <v>0.9901726984161334</v>
       </c>
       <c r="D22">
-        <v>1.01754730743112</v>
+        <v>1.017148757834866</v>
       </c>
       <c r="E22">
-        <v>1.010031635566151</v>
+        <v>1.009825575050227</v>
       </c>
       <c r="F22">
-        <v>1.021537688207462</v>
+        <v>1.021274531753856</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043858639756002</v>
+        <v>1.043728537662941</v>
       </c>
       <c r="J22">
-        <v>1.021588501417615</v>
+        <v>1.021350364609271</v>
       </c>
       <c r="K22">
-        <v>1.032778983358845</v>
+        <v>1.032387981077955</v>
       </c>
       <c r="L22">
-        <v>1.025406949276323</v>
+        <v>1.025204866394329</v>
       </c>
       <c r="M22">
-        <v>1.036694222342244</v>
+        <v>1.036435997703896</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037613400229454</v>
+        <v>1.037409031889614</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034316362551841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034055442014607</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021055855056331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9920077591054837</v>
+        <v>0.9917059772707081</v>
       </c>
       <c r="D23">
-        <v>1.018572582178179</v>
+        <v>1.01810652517409</v>
       </c>
       <c r="E23">
-        <v>1.011228560975725</v>
+        <v>1.010975290630472</v>
       </c>
       <c r="F23">
-        <v>1.02266123522432</v>
+        <v>1.022349677232028</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044142002158402</v>
+        <v>1.043982892600382</v>
       </c>
       <c r="J23">
-        <v>1.022434636002066</v>
+        <v>1.022146070833204</v>
       </c>
       <c r="K23">
-        <v>1.033480371569403</v>
+        <v>1.033022914800121</v>
       </c>
       <c r="L23">
-        <v>1.026273074830492</v>
+        <v>1.026024565930151</v>
       </c>
       <c r="M23">
-        <v>1.037494013357554</v>
+        <v>1.037188143780678</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03824638346129</v>
+        <v>1.038004307398175</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034802642108398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034493787469531</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021193201397924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9981490612363667</v>
+        <v>0.9976472826109007</v>
       </c>
       <c r="D24">
-        <v>1.022563332523965</v>
+        <v>1.021837739933003</v>
       </c>
       <c r="E24">
-        <v>1.015884093757642</v>
+        <v>1.015450025297928</v>
       </c>
       <c r="F24">
-        <v>1.027033699580586</v>
+        <v>1.026536502044111</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045226452863556</v>
+        <v>1.044955546273199</v>
       </c>
       <c r="J24">
-        <v>1.025718548173279</v>
+        <v>1.025236200224791</v>
       </c>
       <c r="K24">
-        <v>1.036205467609725</v>
+        <v>1.035491914536732</v>
       </c>
       <c r="L24">
-        <v>1.029637893008724</v>
+        <v>1.029211146925945</v>
       </c>
       <c r="M24">
-        <v>1.040602141850111</v>
+        <v>1.040113099689829</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040706262272361</v>
+        <v>1.040319218198653</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036721917122962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036231226180953</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021724250518055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005044754665567</v>
+        <v>1.004323959906236</v>
       </c>
       <c r="D25">
-        <v>1.027064158831601</v>
+        <v>1.026050571227575</v>
       </c>
       <c r="E25">
-        <v>1.02114427090821</v>
+        <v>1.020511285259862</v>
       </c>
       <c r="F25">
-        <v>1.031978114234165</v>
+        <v>1.031275954605382</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046402488906584</v>
+        <v>1.046007259507304</v>
       </c>
       <c r="J25">
-        <v>1.02940352730349</v>
+        <v>1.028706676679274</v>
       </c>
       <c r="K25">
-        <v>1.039256379218165</v>
+        <v>1.038257510652828</v>
       </c>
       <c r="L25">
-        <v>1.033422982760665</v>
+        <v>1.032799320658094</v>
       </c>
       <c r="M25">
-        <v>1.044099494476176</v>
+        <v>1.043407404911336</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04347417630074</v>
+        <v>1.042926435855324</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03887620312417</v>
+        <v>1.03818346826967</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022308399497656</v>
       </c>
     </row>
   </sheetData>
